--- a/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
+++ b/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIGMA\Memorias Genericas\Viviendas\Prototipo Duplex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\23-011_ILAG_Viviendas\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274535B5-E1C7-43F4-8053-D623254E3B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11584870-BFA3-43E5-AF4D-7B6FF6AD15AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOSAS VIGUETAS" sheetId="1" r:id="rId1"/>
-    <sheet name="VIGAS" sheetId="5" r:id="rId2"/>
+    <sheet name="VIGA 100-101 Arm Inf" sheetId="7" r:id="rId2"/>
+    <sheet name="VIGA 100-101 Arm Sup" sheetId="5" r:id="rId3"/>
+    <sheet name="VIGA 102" sheetId="6" r:id="rId4"/>
+    <sheet name="VIGA 103" sheetId="8" r:id="rId5"/>
+    <sheet name="VIGA 104-105 Arm Inf" sheetId="10" r:id="rId6"/>
+    <sheet name="VIGA 104-105 Arm Sup" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="97">
   <si>
     <t>Luz</t>
   </si>
@@ -298,6 +309,39 @@
   </si>
   <si>
     <t>Sobrecarga</t>
+  </si>
+  <si>
+    <t>Viga continua</t>
+  </si>
+  <si>
+    <t>o 2fi12</t>
+  </si>
+  <si>
+    <t>o 3fi12</t>
+  </si>
+  <si>
+    <t>Carga de escalera</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>2 fi 8</t>
+  </si>
+  <si>
+    <t>VIGA 102</t>
+  </si>
+  <si>
+    <t>VIGA 103</t>
+  </si>
+  <si>
+    <t>Simplemente Apoyada</t>
+  </si>
+  <si>
+    <t>VIGA 104 - 105</t>
+  </si>
+  <si>
+    <t>o 2fi10 + 1fi12</t>
   </si>
 </sst>
 </file>
@@ -610,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -865,9 +909,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,88 +1026,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -979,29 +1053,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,6 +1075,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198286</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6344AD1-C152-4626-8401-69E660D83C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="13030200"/>
+          <a:ext cx="13914286" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5C749F-48CA-4115-9F8C-BCA050085847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="15887700"/>
+          <a:ext cx="13828571" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CBF10D-1726-4314-A918-D291A0710602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18173700"/>
+          <a:ext cx="13876190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1146,6 +1336,554 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15459808" y="17936308"/>
+          <a:ext cx="13876190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198286</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC45261-5F7F-4192-B725-0A661670BCFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="13030200"/>
+          <a:ext cx="13914286" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD588834-92AA-4D98-AF5D-B3CBD4FC5A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="15887700"/>
+          <a:ext cx="13828571" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3433453C-9EA5-44E8-9B2C-5BFEF872E485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18173700"/>
+          <a:ext cx="13876190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198286</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6856034-D05A-4982-8E18-4E44424F785F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="13030200"/>
+          <a:ext cx="13914286" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C144B23-CD8C-407A-A9F7-35F8404568FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="15887700"/>
+          <a:ext cx="13828571" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B060BA-9D24-4C2D-8F62-30E1462CB4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18173700"/>
+          <a:ext cx="13876190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198286</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FC4663-DE99-4295-BBB7-E96B3A5E563F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="13411200"/>
+          <a:ext cx="13914286" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38950324-64AE-41A0-83A9-201B10A64488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="16268700"/>
+          <a:ext cx="13828571" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FAF5CD6-3688-4C39-AE50-C26937689F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18554700"/>
+          <a:ext cx="13876190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198286</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB746501-A3BB-4DA1-9B59-E2084841624A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="13030200"/>
+          <a:ext cx="13914286" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE9D7FD-0EE2-415F-B395-DEEBDC3720F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="15887700"/>
+          <a:ext cx="13828571" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A5D13F-EEF2-43F7-ACB0-5B7635CD8B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18173700"/>
           <a:ext cx="13876190" cy="2333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1423,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E22"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,13 +2180,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1465,21 +2203,21 @@
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1519,25 +2257,25 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="120"/>
+      <c r="E5" s="121"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119" t="s">
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1556,29 +2294,29 @@
         <v>0</v>
       </c>
       <c r="B6" s="16">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="108"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="108"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1599,10 +2337,10 @@
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="108"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>55</v>
@@ -1610,10 +2348,10 @@
       <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="108"/>
+      <c r="K7" s="123"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1637,10 +2375,10 @@
       <c r="C8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="109">
-        <v>3</v>
-      </c>
-      <c r="E8" s="110"/>
+      <c r="D8" s="124">
+        <v>2</v>
+      </c>
+      <c r="E8" s="125"/>
       <c r="F8" s="2"/>
       <c r="G8" s="26" t="s">
         <v>4</v>
@@ -1651,10 +2389,10 @@
       <c r="I8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="124">
         <v>2</v>
       </c>
-      <c r="K8" s="110"/>
+      <c r="K8" s="125"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1673,7 +2411,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="59">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="47"/>
@@ -1727,21 +2465,21 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="111" t="s">
+      <c r="G11" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2017,10 +2755,10 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="27">
         <v>0</v>
       </c>
@@ -2032,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="113"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="27">
         <f>0.2*2*3.2</f>
         <v>1.2800000000000002</v>
@@ -2045,7 +2783,7 @@
       </c>
       <c r="K19" s="44">
         <f>(I19*J19)/(H6*H7)</f>
-        <v>6.8000000000000016</v>
+        <v>6.90793650793651</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2080,7 +2818,7 @@
       <c r="J20" s="40"/>
       <c r="K20" s="43">
         <f>SUM(K14:K19)</f>
-        <v>10.373000000000001</v>
+        <v>10.48093650793651</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2103,7 +2841,7 @@
       <c r="C21" s="2"/>
       <c r="E21" s="43">
         <f>+D8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="41" t="s">
@@ -2112,6 +2850,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="43">
+        <f>J8</f>
         <v>2</v>
       </c>
       <c r="L21" s="2"/>
@@ -2128,21 +2867,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="111" t="s">
+      <c r="G22" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2187,29 +2926,29 @@
       </c>
       <c r="B24" s="49">
         <f>+ROUND((((E20+E21)*B6^2)/8),2)</f>
-        <v>12.41</v>
+        <v>6.45</v>
       </c>
       <c r="C24" s="50">
         <f>+B24*100</f>
-        <v>1241</v>
-      </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
+        <v>645</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="2"/>
       <c r="G24" s="33" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="49">
-        <v>10</v>
+        <v>15.48</v>
       </c>
       <c r="I24" s="50">
         <f>+H24*100</f>
-        <v>1000</v>
-      </c>
-      <c r="J24" s="121" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J24" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="122"/>
+      <c r="K24" s="101"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2249,19 +2988,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="2"/>
       <c r="E26" s="17"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
       <c r="J26" s="2"/>
       <c r="K26" s="17"/>
       <c r="L26" s="2"/>
@@ -2278,20 +3017,20 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="96"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="96" t="s">
+      <c r="G27" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="19" t="s">
         <v>57</v>
       </c>
@@ -2311,20 +3050,20 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="96"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="23">
         <v>4.3</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="96"/>
+      <c r="H28" s="110"/>
       <c r="I28" s="23">
         <v>3.1</v>
       </c>
@@ -2344,20 +3083,20 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="23">
         <v>0.13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="96" t="s">
+      <c r="G29" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="96"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="23">
         <v>0.13</v>
       </c>
@@ -2377,20 +3116,20 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="96"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="23">
         <v>0.05</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="17"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="96" t="s">
+      <c r="G30" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="96"/>
+      <c r="H30" s="110"/>
       <c r="I30" s="23">
         <v>0.05</v>
       </c>
@@ -2410,29 +3149,29 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="48">
-        <v>1088</v>
-      </c>
-      <c r="D31" s="101" t="s">
+        <v>845</v>
+      </c>
+      <c r="D31" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="102"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="96" t="s">
+      <c r="G31" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="96"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="78">
         <v>1254</v>
       </c>
-      <c r="J31" s="101" t="s">
+      <c r="J31" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="102"/>
+      <c r="K31" s="134"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2472,23 +3211,23 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="str">
+      <c r="A33" s="107" t="str">
         <f>IF(C31&gt;C24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
+        <v>M Admisible &gt; M Total → Buenas Condiciones</v>
+      </c>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="107" t="str">
+        <f>IF(I31&gt;I24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
         <v>M Admisible &lt; M Total  → Malas Condiciones</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="103" t="str">
-        <f>IF(I31&gt;I24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
-        <v>M Admisible &gt; M Total → Buenas Condiciones</v>
-      </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="105"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2528,25 +3267,25 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="99" t="s">
+      <c r="B35" s="130"/>
+      <c r="C35" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="97" t="s">
+      <c r="G35" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99" t="s">
+      <c r="H35" s="130"/>
+      <c r="I35" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="99"/>
-      <c r="K35" s="100"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="132"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2573,20 +3312,20 @@
       <c r="K36" s="53"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
-      <c r="G37" s="125" t="s">
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
+      <c r="G37" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="127"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="106"/>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="68"/>
@@ -2606,7 +3345,7 @@
       </c>
       <c r="B39" s="58">
         <f>+ROUND(((1.2*$E$20+1.6*$E$21)*$B$6)/2,2)</f>
-        <v>17.29</v>
+        <v>11.09</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="22"/>
@@ -2615,7 +3354,7 @@
       </c>
       <c r="H39" s="58">
         <f>+ROUND(((1.2*$K$20+1.6*$K$21)*$H$6)/2,2)</f>
-        <v>25.04</v>
+        <v>24.85</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="22"/>
@@ -2626,14 +3365,14 @@
       </c>
       <c r="B40" s="71">
         <f>+(1/6)*($B$9^(1/2))*($B$7*1000)*(1000*($C$29+$C$30-0.03))/1000</f>
-        <v>136.93063937629154</v>
-      </c>
-      <c r="C40" s="123" t="str">
+        <v>124.99999999999999</v>
+      </c>
+      <c r="C40" s="102" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="124"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="103"/>
       <c r="G40" s="51" t="s">
         <v>52</v>
       </c>
@@ -2641,12 +3380,12 @@
         <f>+(1/6)*($H$9^(1/2))*($H$7*1000)*(1000*($I$29+$I$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="I40" s="123" t="str">
+      <c r="I40" s="102" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="J40" s="123"/>
-      <c r="K40" s="124"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -3232,6 +3971,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="C40:E40"/>
@@ -3248,35 +4016,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3284,11 +4023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96D40F-C532-48BA-94F1-7E5FA3C03385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99EB27-35A6-4157-8643-D667BDE52886}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,13 +4040,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,13 +4057,685 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="91">
+        <v>3.15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="64">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="140"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="61">
+        <f>+E6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="80">
+        <f>+C13*D13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="61">
+        <f>3.2*0.2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D14" s="8">
+        <v>17</v>
+      </c>
+      <c r="E14" s="80">
+        <f>+C14*D14</f>
+        <v>10.880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="82">
+        <f>SUM(E13:E14)</f>
+        <v>12.380000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="91">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
+        <f>+C18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="80">
+        <f>+C19*D19</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="91">
+        <f>+C19</f>
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="93">
+        <v>2</v>
+      </c>
+      <c r="E21" s="80">
+        <f>+C21*D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="144"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="62">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="62">
+        <v>16</v>
+      </c>
+      <c r="G26" s="62">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>19.5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>36.619999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <f>+E6</f>
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="84">
+        <f>((E26/(1000*0.9)))</f>
+        <v>1.7777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="85">
+        <f>(B35/((E31/E7)^(1/2)))</f>
+        <v>0.87206651122491818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="94">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="86">
+        <v>24.765999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3">
+        <f>+ROUND(B31-B32-B33-B34/2,2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="63">
+        <f>(E34*(E31/B35))</f>
+        <v>1.6934017094017091</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="63">
+        <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="87">
+        <f>+IF(B38&gt;B37,B38,B37)</f>
+        <v>1.7330000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="142"/>
+      <c r="C40" s="66">
+        <v>3</v>
+      </c>
+      <c r="D40" s="89">
+        <v>10</v>
+      </c>
+      <c r="E40" s="90">
+        <f>C40*(PI()*(D40/10)^2)/4</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="142"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="66">
+        <v>0</v>
+      </c>
+      <c r="D41" s="89">
+        <v>16</v>
+      </c>
+      <c r="E41" s="90">
+        <f>C41*(PI()*(D41/10)^2)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="67" t="str">
+        <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="E42" s="87">
+        <f>SUM(E40:E41)</f>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="88"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
+        <f>+E27/0.75</f>
+        <v>48.826666666666661</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B35))/1000)</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+IF(B47&gt;B46,0,B46-B47)</f>
+        <v>5.4933333333333323</v>
+      </c>
+      <c r="C48" s="141" t="str">
+        <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="72">
+        <v>1</v>
+      </c>
+      <c r="D51" s="73">
+        <v>6</v>
+      </c>
+      <c r="E51" s="74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="75">
+        <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
+        <v>30.875572599480485</v>
+      </c>
+      <c r="C53" s="67" t="str">
+        <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96D40F-C532-48BA-94F1-7E5FA3C03385}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
@@ -3349,14 +4760,14 @@
         <v>20</v>
       </c>
       <c r="B6" s="91">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="57" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="91">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,7 +4775,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="92">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="57" t="s">
@@ -3384,7 +4795,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="140" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E8" s="140"/>
     </row>
@@ -3396,13 +4807,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
@@ -3425,36 +4836,37 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="134"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="61">
         <f>+E6*E7</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
       </c>
       <c r="E13" s="80">
         <f>+C13*D13</f>
-        <v>2.0000000000000004</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="134"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="61">
-        <v>0</v>
+        <f>3.2*0.2</f>
+        <v>0.64000000000000012</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
       <c r="E14" s="80">
         <f>+C14*D14</f>
-        <v>0</v>
+        <v>10.880000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,7 +4878,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="82">
         <f>SUM(E13:E14)</f>
-        <v>2.0000000000000004</v>
+        <v>12.380000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3490,10 +4902,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="134"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="91">
         <v>0</v>
       </c>
@@ -3506,26 +4918,26 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="134"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="91">
-        <v>1.2749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="93">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="80">
         <f>+C19*D19</f>
-        <v>4.78125</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="141"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,14 +4947,14 @@
       <c r="B21" s="12"/>
       <c r="C21" s="91">
         <f>+C19</f>
-        <v>1.2749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="93">
         <v>2</v>
       </c>
       <c r="E21" s="80">
         <f>+C21*D21</f>
-        <v>2.5499999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,13 +4965,13 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
@@ -3569,35 +4981,33 @@
       <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="135"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="135"/>
+      <c r="E25" s="144"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="62">
-        <f>ROUND(((E15+E18)*B6^2/8),2)</f>
-        <v>3.71</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="62">
-        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))*B6^2/8),2)</f>
-        <v>22.64</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="G26" s="62">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>12.22</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3606,15 +5016,14 @@
       </c>
       <c r="B27" s="5">
         <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>3.85</v>
+        <v>19.5</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="5">
-        <f>ROUND(((1.2*E15+E19)*B6/2),2)</f>
-        <v>13.82</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3625,13 +5034,13 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
@@ -3646,7 +5055,7 @@
       </c>
       <c r="B31" s="3">
         <f>+E6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -3654,7 +5063,7 @@
       </c>
       <c r="E31" s="84">
         <f>((E26/(1000*0.9)))</f>
-        <v>2.5155555555555556E-2</v>
+        <v>2.0288888888888891E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3662,7 +5071,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -3670,10 +5079,10 @@
       </c>
       <c r="E32" s="85">
         <f>(B35/((E31/E7)^(1/2)))</f>
-        <v>1.0150806335358316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81631770118389302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="83" t="s">
         <v>64</v>
       </c>
@@ -3685,13 +5094,13 @@
         <v>30</v>
       </c>
       <c r="E33" s="94">
-        <v>1.218</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F33" s="95" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>24</v>
       </c>
@@ -3703,46 +5112,46 @@
         <v>31</v>
       </c>
       <c r="E34" s="86">
-        <v>24.300999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24.765999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3">
         <f>+ROUND(B31-B32-B33-B34/2,2)</f>
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="C35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="63">
         <f>(E34*(E31/B35))</f>
-        <v>1.6980698765432098</v>
+        <v>1.9325947008547011</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="63">
         <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
-        <v>2.4</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="6" t="s">
@@ -3750,36 +5159,39 @@
       </c>
       <c r="E38" s="87">
         <f>+IF(B38&gt;B37,B38,B37)</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.9325947008547011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="132" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="132"/>
+      <c r="B40" s="142"/>
       <c r="C40" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="89">
         <v>10</v>
       </c>
       <c r="E40" s="90">
         <f>C40*(PI()*(D40/10)^2)/4</f>
-        <v>3.1415926535897931</v>
+        <v>2.3561944901923448</v>
       </c>
       <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="142"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="66">
         <v>0</v>
       </c>
@@ -3791,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3801,70 +5213,70 @@
       </c>
       <c r="E42" s="87">
         <f>SUM(E40:E41)</f>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="88"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="128" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="130"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B46" s="5">
         <f>+E27/0.75</f>
-        <v>18.426666666666666</v>
+        <v>48.826666666666661</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="5">
         <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B35))/1000)</f>
-        <v>53.665631459994948</v>
+        <v>43.333333333333329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="5">
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="131" t="str">
+        <v>5.4933333333333323</v>
+      </c>
+      <c r="C48" s="141" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
-        <v>ARM. MINIMA DE CORTE</v>
-      </c>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -3874,19 +5286,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="132"/>
-      <c r="C50" s="133" t="s">
+      <c r="B50" s="142"/>
+      <c r="C50" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="132"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="72">
         <v>1</v>
       </c>
@@ -3910,7 +5322,7 @@
       </c>
       <c r="B53" s="75">
         <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
-        <v>42.750792830049903</v>
+        <v>30.875572599480485</v>
       </c>
       <c r="C53" s="67" t="str">
         <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
@@ -3929,13 +5341,6 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:E50"/>
@@ -3947,6 +5352,2787 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B2BF4C-C0F8-4FE7-949B-271367FB6829}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="135" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="91">
+        <v>3.15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="64">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="140"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="61">
+        <f>+E6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="80">
+        <f>+C13*D13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="61">
+        <f>4.2*0.2</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="D14" s="8">
+        <v>17</v>
+      </c>
+      <c r="E14" s="80">
+        <f>+C14*D14</f>
+        <v>14.280000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="82">
+        <f>SUM(E13:E14)</f>
+        <v>15.780000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="91">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
+        <f>+C18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="80">
+        <f>+C19*D19</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="91">
+        <f>+C19</f>
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="93">
+        <v>2</v>
+      </c>
+      <c r="E21" s="80">
+        <f>+C21*D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="144"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="62">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="62">
+        <v>30.18</v>
+      </c>
+      <c r="G26" s="62">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>24.85</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>38.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <f>+E6</f>
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="84">
+        <f>((E26/(1000*0.9)))</f>
+        <v>3.3533333333333332E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="85">
+        <f>(B35/((E31/E7)^(1/2)))</f>
+        <v>0.63496528606918545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="94">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="86">
+        <v>25.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3">
+        <f>+ROUND(B31-B32-B33-B34/2,2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="63">
+        <f>(E34*(E31/B35))</f>
+        <v>3.3049679487179486</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="63">
+        <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="87">
+        <f>+IF(B38&gt;B37,B38,B37)</f>
+        <v>3.3049679487179486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="142"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="89">
+        <v>10</v>
+      </c>
+      <c r="E40" s="90">
+        <f>C40*(PI()*(D40/10)^2)/4</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="142"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="66">
+        <v>2</v>
+      </c>
+      <c r="D41" s="89">
+        <v>16</v>
+      </c>
+      <c r="E41" s="90">
+        <f>C41*(PI()*(D41/10)^2)/4</f>
+        <v>4.0212385965949355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="67" t="str">
+        <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="E42" s="87">
+        <f>SUM(E40:E41)</f>
+        <v>4.0212385965949355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="88"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
+        <f>+E27/0.75</f>
+        <v>51.093333333333334</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B35))/1000)</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+IF(B47&gt;B46,0,B46-B47)</f>
+        <v>7.7600000000000051</v>
+      </c>
+      <c r="C48" s="141" t="str">
+        <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="72">
+        <v>1</v>
+      </c>
+      <c r="D51" s="73">
+        <v>6</v>
+      </c>
+      <c r="E51" s="74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="75">
+        <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
+        <v>30.875572599480485</v>
+      </c>
+      <c r="C53" s="67" t="str">
+        <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1521795D-E2A5-496C-B487-460167F8BB74}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="91">
+        <v>1.75</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="64">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="140"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="61">
+        <f>+E6*E7</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="80">
+        <f>+C13*D13</f>
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="80">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="82">
+        <f>SUM(E13:E14)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="91">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
+        <f>+C18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="80">
+        <f>+C19*D19</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="91">
+        <f>+C19</f>
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="93">
+        <v>2</v>
+      </c>
+      <c r="E21" s="80">
+        <f>+C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="144"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="62">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="62">
+        <v>2.41</v>
+      </c>
+      <c r="G26" s="62">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <f>+E6</f>
+        <v>0.17</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="84">
+        <f>((E26/(1000*0.9)))</f>
+        <v>2.6777777777777781E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="85">
+        <f>(B35/((E31/E7)^(1/2)))</f>
+        <v>1.123494843735571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="94">
+        <v>1.089</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="86">
+        <v>24.300999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3">
+        <f>+ROUND(B31-B32-B33-B34/2,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="63">
+        <f>(E34*(E31/B35))</f>
+        <v>0.50055905982905979</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="63">
+        <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="87">
+        <f>+IF(B38&gt;B37,B38,B37)</f>
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="142"/>
+      <c r="C40" s="66">
+        <v>0</v>
+      </c>
+      <c r="D40" s="89">
+        <v>10</v>
+      </c>
+      <c r="E40" s="90">
+        <f>C40*(PI()*(D40/10)^2)/4</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="142"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="66">
+        <v>0</v>
+      </c>
+      <c r="D41" s="89">
+        <v>16</v>
+      </c>
+      <c r="E41" s="90">
+        <f>C41*(PI()*(D41/10)^2)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="67" t="str">
+        <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E42" s="87">
+        <f>SUM(E40:E41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="88"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
+        <f>+E27/0.75</f>
+        <v>8.0933333333333337</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B35))/1000)</f>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+IF(B47&gt;B46,0,B46-B47)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="141" t="str">
+        <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ARM. MINIMA DE CORTE</v>
+      </c>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="72">
+        <v>1</v>
+      </c>
+      <c r="D51" s="73">
+        <v>6</v>
+      </c>
+      <c r="E51" s="74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="75">
+        <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
+        <v>15.437786299740242</v>
+      </c>
+      <c r="C53" s="67" t="str">
+        <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E062836-A092-4CEC-91EB-8768324FE023}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="135" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="91">
+        <v>3.15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="64">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="140"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="61">
+        <f>+E6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="80">
+        <f>+C13*D13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="61">
+        <f>3.2*0.2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D14" s="8">
+        <v>17</v>
+      </c>
+      <c r="E14" s="80">
+        <f>+C14*D14</f>
+        <v>10.880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="82">
+        <f>SUM(E13:E14)</f>
+        <v>12.380000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="91">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
+        <f>+C18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="91">
+        <f>3.15/2</f>
+        <v>1.575</v>
+      </c>
+      <c r="D19" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="80">
+        <f>+C19*D19</f>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="91">
+        <f>(1.73+3.15)/2</f>
+        <v>2.44</v>
+      </c>
+      <c r="D20" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E20" s="80">
+        <f>+C20*D20</f>
+        <v>7.8079999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="80"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="91">
+        <f>+C19</f>
+        <v>1.575</v>
+      </c>
+      <c r="D22" s="93">
+        <v>2</v>
+      </c>
+      <c r="E22" s="80">
+        <f>+C22*D22</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="91">
+        <f>+C20</f>
+        <v>2.44</v>
+      </c>
+      <c r="D23" s="93">
+        <v>2</v>
+      </c>
+      <c r="E23" s="80">
+        <f>+C23*D23</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="144"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="144"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="62">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="62">
+        <v>14.73</v>
+      </c>
+      <c r="G28" s="62">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E22))),2)</f>
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>19.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <f>+E6</f>
+        <v>0.4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="84">
+        <f>((E28/(1000*0.9)))</f>
+        <v>1.6366666666666668E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="85">
+        <f>(B37/((E33/E7)^(1/2)))</f>
+        <v>1.089853219811364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="94">
+        <v>1.089</v>
+      </c>
+      <c r="F35" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="86">
+        <v>24.300999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3">
+        <f>+ROUND(B33-B34-B35-B36/2,2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="63">
+        <f>(E36*(E33/B37))</f>
+        <v>1.104795462962963</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="63">
+        <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="87">
+        <f>+IF(B40&gt;B39,B40,B39)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="142"/>
+      <c r="C42" s="66">
+        <v>2</v>
+      </c>
+      <c r="D42" s="89">
+        <v>10</v>
+      </c>
+      <c r="E42" s="90">
+        <f>C42*(PI()*(D42/10)^2)/4</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="142"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="66">
+        <v>0</v>
+      </c>
+      <c r="D43" s="89">
+        <v>16</v>
+      </c>
+      <c r="E43" s="90">
+        <f>C43*(PI()*(D43/10)^2)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="67" t="str">
+        <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E44" s="87">
+        <f>SUM(E42:E43)</f>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="88"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+E29/0.75</f>
+        <v>40</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B37))/1000)</f>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="5">
+        <f>+IF(B49&gt;B48,0,B48-B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="141" t="str">
+        <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ARM. MINIMA DE CORTE</v>
+      </c>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="72">
+        <v>1</v>
+      </c>
+      <c r="D53" s="73">
+        <v>6</v>
+      </c>
+      <c r="E53" s="74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="75">
+        <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
+        <v>42.750792830049903</v>
+      </c>
+      <c r="C55" s="67" t="str">
+        <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF34DB6-F503-4C26-876F-20F31B326D54}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="135" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="91">
+        <v>3.15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="64">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="140"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="61">
+        <f>+E6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="80">
+        <f>+C13*D13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="61">
+        <f>3.2*0.2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D14" s="8">
+        <v>17</v>
+      </c>
+      <c r="E14" s="80">
+        <f>+C14*D14</f>
+        <v>10.880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="82">
+        <f>SUM(E13:E14)</f>
+        <v>12.380000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="91">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
+        <f>+C18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="91">
+        <f>3.15/2</f>
+        <v>1.575</v>
+      </c>
+      <c r="D19" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="80">
+        <f>+C19*D19</f>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="91">
+        <f>(1.73+3.15)/2</f>
+        <v>2.44</v>
+      </c>
+      <c r="D20" s="93">
+        <v>3.2</v>
+      </c>
+      <c r="E20" s="80">
+        <f>+C20*D20</f>
+        <v>7.8079999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="80"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="91">
+        <f>+C19</f>
+        <v>1.575</v>
+      </c>
+      <c r="D22" s="93">
+        <v>2</v>
+      </c>
+      <c r="E22" s="80">
+        <f>+C22*D22</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="91">
+        <f>+C20</f>
+        <v>2.44</v>
+      </c>
+      <c r="D23" s="93">
+        <v>2</v>
+      </c>
+      <c r="E23" s="80">
+        <f>+C23*D23</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="144"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="144"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="62">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="62">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="G28" s="62">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E22))),2)</f>
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>19.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <f>+E6</f>
+        <v>0.4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="84">
+        <f>((E28/(1000*0.9)))</f>
+        <v>3.5611111111111107E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="85">
+        <f>(B37/((E33/E7)^(1/2)))</f>
+        <v>0.73884845258106568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="94">
+        <v>0.67</v>
+      </c>
+      <c r="F35" s="95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="86">
+        <v>25.207000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3">
+        <f>+ROUND(B33-B34-B35-B36/2,2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="63">
+        <f>(E36*(E33/B37))</f>
+        <v>2.4934702160493827</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="63">
+        <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="87">
+        <f>+IF(B40&gt;B39,B40,B39)</f>
+        <v>2.4934702160493827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="142"/>
+      <c r="C42" s="66">
+        <v>3</v>
+      </c>
+      <c r="D42" s="89">
+        <v>10</v>
+      </c>
+      <c r="E42" s="90">
+        <f>C42*(PI()*(D42/10)^2)/4</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="142"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="66">
+        <v>0</v>
+      </c>
+      <c r="D43" s="89">
+        <v>16</v>
+      </c>
+      <c r="E43" s="90">
+        <f>C43*(PI()*(D43/10)^2)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="67" t="str">
+        <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E44" s="87">
+        <f>SUM(E42:E43)</f>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="88"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+E29/0.75</f>
+        <v>75.08</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B37))/1000)</f>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="5">
+        <f>+IF(B49&gt;B48,0,B48-B49)</f>
+        <v>30.080000000000005</v>
+      </c>
+      <c r="C50" s="141" t="str">
+        <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="72">
+        <v>1</v>
+      </c>
+      <c r="D53" s="73">
+        <v>6</v>
+      </c>
+      <c r="E53" s="74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="75">
+        <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
+        <v>42.750792830049903</v>
+      </c>
+      <c r="C55" s="67" t="str">
+        <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
+++ b/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\23-011_ILAG_Viviendas\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11584870-BFA3-43E5-AF4D-7B6FF6AD15AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CC3AF-68F0-4777-BCCB-82A8307B28FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOSAS VIGUETAS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="102">
   <si>
     <t>Luz</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Carga de escalera</t>
   </si>
   <si>
-    <t>kN</t>
-  </si>
-  <si>
     <t>2 fi 8</t>
   </si>
   <si>
@@ -342,6 +339,24 @@
   </si>
   <si>
     <t>o 2fi10 + 1fi12</t>
+  </si>
+  <si>
+    <t>Simplemente apoyado</t>
+  </si>
+  <si>
+    <t>Continuo</t>
+  </si>
+  <si>
+    <t>Carga de losa D</t>
+  </si>
+  <si>
+    <t>Carga de losa L</t>
+  </si>
+  <si>
+    <t>Carga escalera D</t>
+  </si>
+  <si>
+    <t>Carga escalera L</t>
   </si>
 </sst>
 </file>
@@ -654,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -771,12 +786,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -921,6 +930,84 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,18 +1029,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,68 +1038,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1035,25 +1062,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1491,13 +1509,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>198286</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1535,13 +1553,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>112571</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>75952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1579,13 +1597,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>160190</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>47333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2161,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,13 +2198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2203,21 +2221,21 @@
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2257,25 +2275,25 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="121"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120" t="s">
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="121"/>
+      <c r="K5" s="123"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2299,10 +2317,10 @@
       <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="123"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2313,10 +2331,10 @@
       <c r="I6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="123"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2337,10 +2355,10 @@
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="123"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>55</v>
@@ -2348,10 +2366,10 @@
       <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="123"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2369,16 +2387,16 @@
       <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>178</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="124">
+      <c r="D8" s="112">
         <v>2</v>
       </c>
-      <c r="E8" s="125"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="2"/>
       <c r="G8" s="26" t="s">
         <v>4</v>
@@ -2389,10 +2407,10 @@
       <c r="I8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="124">
+      <c r="J8" s="112">
         <v>2</v>
       </c>
-      <c r="K8" s="125"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2410,22 +2428,26 @@
       <c r="A9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="57">
         <v>25</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="145"/>
       <c r="F9" s="2"/>
       <c r="G9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="57">
         <v>25</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46"/>
+      <c r="J9" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="145"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2729,7 +2751,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="42">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="13" t="s">
@@ -2739,7 +2761,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
       <c r="K18" s="42">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2755,10 +2777,10 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="27">
         <v>0</v>
       </c>
@@ -2770,20 +2792,20 @@
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="128"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="27">
-        <f>0.2*2*3.2</f>
-        <v>1.2800000000000002</v>
+        <f>0.2*2</f>
+        <v>0.4</v>
       </c>
       <c r="J19" s="28">
         <v>17</v>
       </c>
       <c r="K19" s="44">
-        <f>(I19*J19)/(H6*H7)</f>
-        <v>6.90793650793651</v>
+        <f>(I19*J19)/(H7)</f>
+        <v>6.8000000000000007</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2807,7 +2829,7 @@
       <c r="D20" s="40"/>
       <c r="E20" s="43">
         <f>SUM(E14:E19)</f>
-        <v>3.2030000000000003</v>
+        <v>3.2830000000000004</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="37" t="s">
@@ -2818,7 +2840,7 @@
       <c r="J20" s="40"/>
       <c r="K20" s="43">
         <f>SUM(K14:K19)</f>
-        <v>10.48093650793651</v>
+        <v>10.453000000000001</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2924,31 +2946,31 @@
       <c r="A24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="47">
         <f>+ROUND((((E20+E21)*B6^2)/8),2)</f>
-        <v>6.45</v>
-      </c>
-      <c r="C24" s="50">
+        <v>6.55</v>
+      </c>
+      <c r="C24" s="48">
         <f>+B24*100</f>
-        <v>645</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+        <v>655</v>
+      </c>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="2"/>
       <c r="G24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="49">
-        <v>15.48</v>
-      </c>
-      <c r="I24" s="50">
+      <c r="H24" s="47">
+        <v>8.85</v>
+      </c>
+      <c r="I24" s="48">
         <f>+H24*100</f>
-        <v>1548</v>
-      </c>
-      <c r="J24" s="100" t="s">
+        <v>885</v>
+      </c>
+      <c r="J24" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="101"/>
+      <c r="K24" s="125"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2988,19 +3010,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="2"/>
       <c r="E26" s="17"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="111" t="s">
+      <c r="G26" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
       <c r="J26" s="2"/>
       <c r="K26" s="17"/>
       <c r="L26" s="2"/>
@@ -3017,20 +3039,20 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="110"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="110"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="19" t="s">
         <v>57</v>
       </c>
@@ -3050,22 +3072,22 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="110"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="23">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="110" t="s">
+      <c r="G28" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="110"/>
+      <c r="H28" s="99"/>
       <c r="I28" s="23">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="17"/>
@@ -3083,20 +3105,20 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="23">
         <v>0.13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="110" t="s">
+      <c r="G29" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="110"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="23">
         <v>0.13</v>
       </c>
@@ -3116,20 +3138,20 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="110"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="23">
         <v>0.05</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="17"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="110" t="s">
+      <c r="G30" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="110"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="23">
         <v>0.05</v>
       </c>
@@ -3149,29 +3171,29 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="48">
+      <c r="B31" s="99"/>
+      <c r="C31" s="46">
         <v>845</v>
       </c>
-      <c r="D31" s="133" t="s">
+      <c r="D31" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="134"/>
+      <c r="E31" s="105"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="110" t="s">
+      <c r="G31" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="78">
+      <c r="H31" s="99"/>
+      <c r="I31" s="76">
         <v>1254</v>
       </c>
-      <c r="J31" s="133" t="s">
+      <c r="J31" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="134"/>
+      <c r="K31" s="105"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3211,23 +3233,23 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107" t="str">
+      <c r="A33" s="106" t="str">
         <f>IF(C31&gt;C24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
         <v>M Admisible &gt; M Total → Buenas Condiciones</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="107" t="str">
+      <c r="G33" s="106" t="str">
         <f>IF(I31&gt;I24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
-        <v>M Admisible &lt; M Total  → Malas Condiciones</v>
-      </c>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="109"/>
+        <v>M Admisible &gt; M Total → Buenas Condiciones</v>
+      </c>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3242,17 +3264,17 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -3267,25 +3289,25 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="131"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="129" t="s">
+      <c r="G35" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131" t="s">
+      <c r="H35" s="101"/>
+      <c r="I35" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="103"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -3300,92 +3322,92 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
-      <c r="G37" s="104" t="s">
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="130"/>
+      <c r="G37" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="106"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="130"/>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="70"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="70"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="58">
+      <c r="B39" s="56">
         <f>+ROUND(((1.2*$E$20+1.6*$E$21)*$B$6)/2,2)</f>
-        <v>11.09</v>
+        <v>11.24</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="22"/>
       <c r="G39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="58">
+      <c r="H39" s="56">
         <f>+ROUND(((1.2*$K$20+1.6*$K$21)*$H$6)/2,2)</f>
-        <v>24.85</v>
+        <v>24.8</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="71">
+      <c r="B40" s="69">
         <f>+(1/6)*($B$9^(1/2))*($B$7*1000)*(1000*($C$29+$C$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="C40" s="102" t="str">
+      <c r="C40" s="126" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103"/>
-      <c r="G40" s="51" t="s">
+      <c r="D40" s="126"/>
+      <c r="E40" s="127"/>
+      <c r="G40" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="69">
         <f>+(1/6)*($H$9^(1/2))*($H$7*1000)*(1000*($I$29+$I$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="I40" s="102" t="str">
+      <c r="I40" s="126" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="127"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -3970,36 +3992,7 @@
       <c r="E64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A5:C5"/>
+  <mergeCells count="47">
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="C40:E40"/>
@@ -4016,6 +4009,37 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4026,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99EB27-35A6-4157-8643-D667BDE52886}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,13 +4064,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,75 +4081,75 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="139" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="89">
         <v>3.15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="89">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>0.2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -4135,154 +4159,154 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="61">
+      <c r="B13" s="137"/>
+      <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <f>+C13*D13</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="61">
+      <c r="B14" s="137"/>
+      <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="78">
         <f>+C14*D14</f>
         <v>10.880000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>12.380000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="91">
+      <c r="B18" s="137"/>
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f>+C18*D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="91">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="93">
+      <c r="B19" s="137"/>
+      <c r="C19" s="89">
+        <v>0</v>
+      </c>
+      <c r="D19" s="91">
         <v>3.2</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f>+C19*D19</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="91">
+      <c r="B21" s="96"/>
+      <c r="C21" s="89">
         <f>+C19</f>
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="93">
+        <v>0</v>
+      </c>
+      <c r="D21" s="91">
         <v>2</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="78">
         <f>+C21*D21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4293,49 +4317,49 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="138"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="60">
         <v>18.260000000000002</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="62">
-        <v>16</v>
-      </c>
-      <c r="G26" s="62">
+      <c r="E26" s="60">
+        <v>14.17</v>
+      </c>
+      <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>18.38</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4362,23 +4386,23 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="3">
@@ -4389,13 +4413,13 @@
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>((E26/(1000*0.9)))</f>
-        <v>1.7777777777777778E-2</v>
+        <v>1.5744444444444443E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="4">
@@ -4405,13 +4429,13 @@
       <c r="D32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="83">
         <f>(B35/((E31/E7)^(1/2)))</f>
-        <v>0.87206651122491818</v>
+        <v>0.92666908674578941</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="4">
@@ -4421,15 +4445,15 @@
       <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="92">
         <v>0.79600000000000004</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="93" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="4">
@@ -4439,12 +4463,12 @@
       <c r="D34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="84">
         <v>24.765999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3">
@@ -4462,30 +4486,30 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="61">
         <f>(E34*(E31/B35))</f>
-        <v>1.6934017094017091</v>
+        <v>1.4997188888888886</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="61">
         <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
         <v>1.7330000000000001</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="85">
         <f>+IF(B38&gt;B37,B38,B37)</f>
         <v>1.7330000000000001</v>
       </c>
@@ -4498,17 +4522,17 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="142" t="s">
+      <c r="A40" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="66">
+      <c r="B40" s="134"/>
+      <c r="C40" s="64">
         <v>3</v>
       </c>
-      <c r="D40" s="89">
+      <c r="D40" s="87">
         <v>10</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40" s="88">
         <f>C40*(PI()*(D40/10)^2)/4</f>
         <v>2.3561944901923448</v>
       </c>
@@ -4518,15 +4542,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="142"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="66">
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="64">
         <v>0</v>
       </c>
-      <c r="D41" s="89">
+      <c r="D41" s="87">
         <v>16</v>
       </c>
-      <c r="E41" s="90">
+      <c r="E41" s="88">
         <f>C41*(PI()*(D41/10)^2)/4</f>
         <v>0</v>
       </c>
@@ -4535,11 +4559,11 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="67" t="str">
+      <c r="D42" s="65" t="str">
         <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
-      <c r="E42" s="87">
+      <c r="E42" s="85">
         <f>SUM(E40:E41)</f>
         <v>2.3561944901923448</v>
       </c>
@@ -4549,16 +4573,16 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="88"/>
+      <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="133"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -4580,7 +4604,7 @@
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="5">
@@ -4599,12 +4623,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>5.4933333333333323</v>
       </c>
-      <c r="C48" s="141" t="str">
+      <c r="C48" s="135" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -4614,26 +4638,26 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="142" t="s">
+      <c r="A50" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="143" t="s">
+      <c r="B50" s="134"/>
+      <c r="C50" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="72">
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="70">
         <v>1</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="71">
         <v>6</v>
       </c>
-      <c r="E51" s="74">
+      <c r="E51" s="72">
         <v>20</v>
       </c>
     </row>
@@ -4645,14 +4669,14 @@
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="73">
         <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
         <v>30.875572599480485</v>
       </c>
-      <c r="C53" s="67" t="str">
+      <c r="C53" s="65" t="str">
         <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
@@ -4669,24 +4693,24 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4712,13 +4736,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4729,75 +4753,75 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="139" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="89">
         <v>3.15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="89">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>0.2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -4807,20 +4831,20 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -4836,60 +4860,60 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="61">
+      <c r="B13" s="137"/>
+      <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <f>+C13*D13</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="61">
+      <c r="B14" s="137"/>
+      <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="78">
         <f>+C14*D14</f>
         <v>10.880000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>12.380000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="14"/>
       <c r="C17" s="6" t="s">
         <v>1</v>
@@ -4902,33 +4926,33 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="91">
+      <c r="B18" s="137"/>
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f>+C18*D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="91">
+      <c r="B19" s="137"/>
+      <c r="C19" s="89">
         <v>0.5</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="91">
         <v>3.2</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f>+C19*D19</f>
         <v>1.6</v>
       </c>
@@ -4937,22 +4961,22 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="91">
+      <c r="C21" s="89">
         <f>+C19</f>
         <v>0.5</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="91">
         <v>2</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="78">
         <f>+C21*D21</f>
         <v>1</v>
       </c>
@@ -4965,47 +4989,47 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="138"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="60">
         <v>18.260000000000002</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="60">
         <v>18.260000000000002</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
         <v>18.38</v>
       </c>
@@ -5034,23 +5058,23 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="3">
@@ -5061,13 +5085,13 @@
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>((E26/(1000*0.9)))</f>
         <v>2.0288888888888891E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="4">
@@ -5077,13 +5101,13 @@
       <c r="D32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="83">
         <f>(B35/((E31/E7)^(1/2)))</f>
         <v>0.81631770118389302</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="4">
@@ -5093,15 +5117,15 @@
       <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="92">
         <v>0.79600000000000004</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="93" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="4">
@@ -5111,12 +5135,12 @@
       <c r="D34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="84">
         <v>24.765999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3">
@@ -5134,10 +5158,10 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="61">
         <f>(E34*(E31/B35))</f>
         <v>1.9325947008547011</v>
       </c>
@@ -5146,10 +5170,10 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="61">
         <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
         <v>1.7330000000000001</v>
       </c>
@@ -5157,7 +5181,7 @@
       <c r="D38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="85">
         <f>+IF(B38&gt;B37,B38,B37)</f>
         <v>1.9325947008547011</v>
       </c>
@@ -5170,17 +5194,17 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="142" t="s">
+      <c r="A40" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="66">
+      <c r="B40" s="134"/>
+      <c r="C40" s="64">
         <v>3</v>
       </c>
-      <c r="D40" s="89">
+      <c r="D40" s="87">
         <v>10</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40" s="88">
         <f>C40*(PI()*(D40/10)^2)/4</f>
         <v>2.3561944901923448</v>
       </c>
@@ -5190,15 +5214,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="142"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="66">
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="64">
         <v>0</v>
       </c>
-      <c r="D41" s="89">
+      <c r="D41" s="87">
         <v>16</v>
       </c>
-      <c r="E41" s="90">
+      <c r="E41" s="88">
         <f>C41*(PI()*(D41/10)^2)/4</f>
         <v>0</v>
       </c>
@@ -5207,11 +5231,11 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="67" t="str">
+      <c r="D42" s="65" t="str">
         <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
-      <c r="E42" s="87">
+      <c r="E42" s="85">
         <f>SUM(E40:E41)</f>
         <v>2.3561944901923448</v>
       </c>
@@ -5221,16 +5245,16 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="88"/>
+      <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="133"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -5252,7 +5276,7 @@
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="5">
@@ -5271,12 +5295,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>5.4933333333333323</v>
       </c>
-      <c r="C48" s="141" t="str">
+      <c r="C48" s="135" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -5286,26 +5310,26 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="142" t="s">
+      <c r="A50" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="143" t="s">
+      <c r="B50" s="134"/>
+      <c r="C50" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="72">
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="70">
         <v>1</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="71">
         <v>6</v>
       </c>
-      <c r="E51" s="74">
+      <c r="E51" s="72">
         <v>20</v>
       </c>
     </row>
@@ -5317,14 +5341,14 @@
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="73">
         <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
         <v>30.875572599480485</v>
       </c>
-      <c r="C53" s="67" t="str">
+      <c r="C53" s="65" t="str">
         <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
@@ -5341,6 +5365,13 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:E50"/>
@@ -5352,13 +5383,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5370,8 +5394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B2BF4C-C0F8-4FE7-949B-271367FB6829}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,13 +5408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5401,75 +5425,75 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="A3" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="139" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="89">
         <v>3.15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="89">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>0.2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -5479,152 +5503,152 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="61">
+      <c r="B13" s="137"/>
+      <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <f>+C13*D13</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="61">
+      <c r="B14" s="137"/>
+      <c r="C14" s="59">
         <f>4.2*0.2</f>
         <v>0.84000000000000008</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="78">
         <f>+C14*D14</f>
         <v>14.280000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>15.780000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="91">
+      <c r="B18" s="137"/>
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f>+C18*D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="91">
+      <c r="B19" s="137"/>
+      <c r="C19" s="89">
         <v>0.5</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="91">
         <v>3.2</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f>+C19*D19</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="91">
+      <c r="B21" s="96"/>
+      <c r="C21" s="89">
         <f>+C19</f>
         <v>0.5</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="91">
         <v>2</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="78">
         <f>+C21*D21</f>
         <v>1</v>
       </c>
@@ -5637,47 +5661,47 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="138"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="60">
         <v>18.260000000000002</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="60">
         <v>30.18</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
         <v>22.46</v>
       </c>
@@ -5706,23 +5730,23 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="3">
@@ -5733,13 +5757,13 @@
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>((E26/(1000*0.9)))</f>
         <v>3.3533333333333332E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="4">
@@ -5749,13 +5773,13 @@
       <c r="D32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="83">
         <f>(B35/((E31/E7)^(1/2)))</f>
         <v>0.63496528606918545</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="4">
@@ -5765,15 +5789,15 @@
       <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="92">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="93" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="4">
@@ -5783,12 +5807,12 @@
       <c r="D34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="84">
         <v>25.625</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3">
@@ -5806,10 +5830,10 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="61">
         <f>(E34*(E31/B35))</f>
         <v>3.3049679487179486</v>
       </c>
@@ -5818,18 +5842,18 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="61">
         <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
         <v>1.7330000000000001</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="85">
         <f>+IF(B38&gt;B37,B38,B37)</f>
         <v>3.3049679487179486</v>
       </c>
@@ -5842,15 +5866,15 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="142" t="s">
+      <c r="A40" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="89">
+      <c r="B40" s="134"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="87">
         <v>10</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40" s="88">
         <f>C40*(PI()*(D40/10)^2)/4</f>
         <v>0</v>
       </c>
@@ -5860,15 +5884,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="142"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="66">
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="64">
         <v>2</v>
       </c>
-      <c r="D41" s="89">
+      <c r="D41" s="87">
         <v>16</v>
       </c>
-      <c r="E41" s="90">
+      <c r="E41" s="88">
         <f>C41*(PI()*(D41/10)^2)/4</f>
         <v>4.0212385965949355</v>
       </c>
@@ -5877,11 +5901,11 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="67" t="str">
+      <c r="D42" s="65" t="str">
         <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
-      <c r="E42" s="87">
+      <c r="E42" s="85">
         <f>SUM(E40:E41)</f>
         <v>4.0212385965949355</v>
       </c>
@@ -5891,16 +5915,16 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="88"/>
+      <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="133"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -5922,7 +5946,7 @@
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="5">
@@ -5941,12 +5965,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>7.7600000000000051</v>
       </c>
-      <c r="C48" s="141" t="str">
+      <c r="C48" s="135" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -5956,26 +5980,26 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="142" t="s">
+      <c r="A50" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="143" t="s">
+      <c r="B50" s="134"/>
+      <c r="C50" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="72">
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="70">
         <v>1</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="71">
         <v>6</v>
       </c>
-      <c r="E51" s="74">
+      <c r="E51" s="72">
         <v>20</v>
       </c>
     </row>
@@ -5987,14 +6011,14 @@
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="73">
         <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
         <v>30.875572599480485</v>
       </c>
-      <c r="C53" s="67" t="str">
+      <c r="C53" s="65" t="str">
         <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
@@ -6011,24 +6035,24 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6038,698 +6062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1521795D-E2A5-496C-B487-460167F8BB74}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="139"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="91">
-        <v>1.75</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="91">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="92">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="91">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="64">
-        <v>420</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="140"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="61">
-        <f>+E6*E7</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>25</v>
-      </c>
-      <c r="E13" s="80">
-        <f>+C13*D13</f>
-        <v>0.85000000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="80">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="82">
-        <f>SUM(E13:E14)</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="82"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="91">
-        <v>0</v>
-      </c>
-      <c r="D18" s="93">
-        <v>0</v>
-      </c>
-      <c r="E18" s="80">
-        <f>+C18*D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="91">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="93">
-        <v>3.2</v>
-      </c>
-      <c r="E19" s="80">
-        <f>+C19*D19</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="80"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="91">
-        <f>+C19</f>
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="93">
-        <v>2</v>
-      </c>
-      <c r="E21" s="80">
-        <f>+C21*D21</f>
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="144"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="62">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="62">
-        <v>2.41</v>
-      </c>
-      <c r="G26" s="62">
-        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="5">
-        <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="5">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3">
-        <f>+E6</f>
-        <v>0.17</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="84">
-        <f>((E26/(1000*0.9)))</f>
-        <v>2.6777777777777781E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="85">
-        <f>(B35/((E31/E7)^(1/2)))</f>
-        <v>1.123494843735571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="94">
-        <v>1.089</v>
-      </c>
-      <c r="F33" s="95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="86">
-        <v>24.300999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3">
-        <f>+ROUND(B31-B32-B33-B34/2,2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="63">
-        <f>(E34*(E31/B35))</f>
-        <v>0.50055905982905979</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="63">
-        <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="87">
-        <f>+IF(B38&gt;B37,B38,B37)</f>
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="66">
-        <v>0</v>
-      </c>
-      <c r="D40" s="89">
-        <v>10</v>
-      </c>
-      <c r="E40" s="90">
-        <f>C40*(PI()*(D40/10)^2)/4</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="142"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="66">
-        <v>0</v>
-      </c>
-      <c r="D41" s="89">
-        <v>16</v>
-      </c>
-      <c r="E41" s="90">
-        <f>C41*(PI()*(D41/10)^2)/4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="67" t="str">
-        <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
-        <v>M.C.</v>
-      </c>
-      <c r="E42" s="87">
-        <f>SUM(E40:E41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="88"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="5">
-        <f>+E27/0.75</f>
-        <v>8.0933333333333337</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="5">
-        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B35))/1000)</f>
-        <v>21.666666666666664</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="5">
-        <f>+IF(B47&gt;B46,0,B46-B47)</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="141" t="str">
-        <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
-        <v>ARM. MINIMA DE CORTE</v>
-      </c>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="143" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="72">
-        <v>1</v>
-      </c>
-      <c r="D51" s="73">
-        <v>6</v>
-      </c>
-      <c r="E51" s="74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="75">
-        <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
-        <v>15.437786299740242</v>
-      </c>
-      <c r="C53" s="67" t="str">
-        <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
-        <v>B.C.</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E062836-A092-4CEC-91EB-8768324FE023}">
-  <dimension ref="A1:G59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6742,13 +6078,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6759,75 +6095,75 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="A3" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="139" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="91">
-        <v>3.15</v>
+      <c r="B6" s="89">
+        <v>1.75</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="91">
-        <v>0.4</v>
+      <c r="E6" s="89">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="91">
-        <v>0.15</v>
+      <c r="E7" s="89">
+        <v>0.2</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="140"/>
+      <c r="D8" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -6837,434 +6173,434 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="61">
+      <c r="B13" s="137"/>
+      <c r="C13" s="59">
         <f>+E6*E7</f>
-        <v>0.06</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <f>+C13*D13</f>
-        <v>1.5</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="61">
-        <f>3.2*0.2</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="D14" s="8">
-        <v>17</v>
-      </c>
-      <c r="E14" s="80">
-        <f>+C14*D14</f>
-        <v>10.880000000000003</v>
+      <c r="A14" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="78">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
-        <v>12.380000000000003</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="91">
+      <c r="B18" s="137"/>
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f>+C18*D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="91">
-        <f>3.15/2</f>
-        <v>1.575</v>
-      </c>
-      <c r="D19" s="93">
+      <c r="A19" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="137"/>
+      <c r="C19" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="91">
         <v>3.2</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f>+C19*D19</f>
-        <v>5.04</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="91">
-        <f>(1.73+3.15)/2</f>
-        <v>2.44</v>
-      </c>
-      <c r="D20" s="93">
-        <v>3.2</v>
-      </c>
-      <c r="E20" s="80">
+      <c r="A20" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="137"/>
+      <c r="C20" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="91">
+        <v>2</v>
+      </c>
+      <c r="E20" s="78">
         <f>+C20*D20</f>
-        <v>7.8079999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="80"/>
+      <c r="A21" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="89">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="78">
+        <f>+C21*D21</f>
+        <v>0.65</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="98" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B22" s="98"/>
-      <c r="C22" s="91">
-        <f>+C19</f>
-        <v>1.575</v>
-      </c>
-      <c r="D22" s="93">
+      <c r="C22" s="89">
+        <v>1.3</v>
+      </c>
+      <c r="D22" s="91">
         <v>2</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="78">
         <f>+C22*D22</f>
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="91">
-        <f>+C20</f>
-        <v>2.44</v>
-      </c>
-      <c r="D23" s="93">
-        <v>2</v>
-      </c>
-      <c r="E23" s="80">
-        <f>+C23*D23</f>
-        <v>4.88</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
+      <c r="A26" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="138"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="138"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="144"/>
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="60">
+        <v>18.260000000000002</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="144" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="144"/>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="60">
+        <v>2.41</v>
+      </c>
+      <c r="G27" s="60">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
+        <v>3.98</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="62">
-        <v>18.260000000000002</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>0.74</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="62">
-        <v>14.73</v>
-      </c>
-      <c r="G28" s="62">
-        <f>ROUND((((1.2*(E15+E19))+(1.6*E22))),2)</f>
-        <v>25.94</v>
+        <v>51</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6.07</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="5">
-        <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>19.5</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="5">
-        <v>30</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
+      <c r="A32" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3">
+        <f>+E6</f>
+        <v>0.17</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="82">
+        <f>((E27/(1000*0.9)))</f>
+        <v>2.6777777777777781E-3</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="3">
-        <f>+E6</f>
-        <v>0.4</v>
+      <c r="A33" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.03</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="84">
-        <f>((E28/(1000*0.9)))</f>
-        <v>1.6366666666666668E-2</v>
+        <v>27</v>
+      </c>
+      <c r="E33" s="83">
+        <f>(B36/((E32/E7)^(1/2)))</f>
+        <v>1.123494843735571</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>36</v>
+      <c r="A34" s="81" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="4">
-        <v>0.03</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="85">
-        <f>(B37/((E33/E7)^(1/2)))</f>
-        <v>1.089853219811364</v>
+        <v>30</v>
+      </c>
+      <c r="E34" s="92">
+        <v>1.089</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
-        <v>64</v>
+      <c r="A35" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="B35" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="94">
-        <v>1.089</v>
-      </c>
-      <c r="F35" s="95" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="E35" s="84">
+        <v>24.300999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.01</v>
+      <c r="A36" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3">
+        <f>+ROUND(B32-B33-B34-B35/2,2)</f>
+        <v>0.13</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="86">
-        <v>24.300999999999998</v>
-      </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3">
-        <f>+ROUND(B33-B34-B35-B36/2,2)</f>
-        <v>0.36</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="61">
+        <f>(E35*(E32/B36))</f>
+        <v>0.50055905982905979</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="63">
-        <f>(E36*(E33/B37))</f>
-        <v>1.104795462962963</v>
+      <c r="A39" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="61">
+        <f>+ROUND(((1.4*$E$7*$B$36)/$B$8)*10000,3)</f>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="85">
+        <f>+IF(B39&gt;B38,B39,B38)</f>
+        <v>0.86699999999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="63">
-        <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
-        <v>1.8</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="87">
-        <f>+IF(B40&gt;B39,B40,B39)</f>
-        <v>1.8</v>
-      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="134"/>
+      <c r="C41" s="64">
+        <v>0</v>
+      </c>
+      <c r="D41" s="87">
+        <v>10</v>
+      </c>
+      <c r="E41" s="88">
+        <f>C41*(PI()*(D41/10)^2)/4</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="142"/>
-      <c r="C42" s="66">
-        <v>2</v>
-      </c>
-      <c r="D42" s="89">
-        <v>10</v>
-      </c>
-      <c r="E42" s="90">
+      <c r="A42" s="134"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="64">
+        <v>0</v>
+      </c>
+      <c r="D42" s="87">
+        <v>16</v>
+      </c>
+      <c r="E42" s="88">
         <f>C42*(PI()*(D42/10)^2)/4</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="142"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="66">
-        <v>0</v>
-      </c>
-      <c r="D43" s="89">
-        <v>16</v>
-      </c>
-      <c r="E43" s="90">
-        <f>C43*(PI()*(D43/10)^2)/4</f>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="65" t="str">
+        <f>+IF(E43&gt;E39,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E43" s="85">
+        <f>SUM(E41:E42)</f>
         <v>0</v>
       </c>
     </row>
@@ -7272,159 +6608,146 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="67" t="str">
-        <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
-        <v>M.C.</v>
-      </c>
-      <c r="E44" s="87">
-        <f>SUM(E42:E43)</f>
-        <v>1.5707963267948966</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="86"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="88"/>
+      <c r="A45" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="133"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="113"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="5">
+        <f>+E28/0.75</f>
+        <v>8.0933333333333337</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>74</v>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="74" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="5">
-        <f>+E29/0.75</f>
-        <v>40</v>
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B36))/1000)</f>
+        <v>21.666666666666664</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
-        <v>52</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B49" s="5">
-        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B37))/1000)</f>
-        <v>44.999999999999993</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+        <f>+IF(B48&gt;B47,0,B47-B48)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="135" t="str">
+        <f>+IF(B48&gt;B47,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ARM. MINIMA DE CORTE</v>
+      </c>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="5">
-        <f>+IF(B49&gt;B48,0,B48-B49)</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="141" t="str">
-        <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
-        <v>ARM. MINIMA DE CORTE</v>
-      </c>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="134"/>
+      <c r="C51" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="143" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="70">
+        <v>1</v>
+      </c>
+      <c r="D52" s="71">
+        <v>6</v>
+      </c>
+      <c r="E52" s="72">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="142"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="72">
-        <v>1</v>
-      </c>
-      <c r="D53" s="73">
-        <v>6</v>
-      </c>
-      <c r="E53" s="74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="73">
+        <f>+((((2*(PI()*(D52/10)^2)/4)/(100^2))*B8*B36)/(E52/100))*1000</f>
+        <v>15.437786299740242</v>
+      </c>
+      <c r="C54" s="65" t="str">
+        <f>+IF(B54&gt;B49,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="75">
-        <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
-        <v>42.750792830049903</v>
-      </c>
-      <c r="C55" s="67" t="str">
-        <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
-        <v>B.C.</v>
-      </c>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7432,12 +6755,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF34DB6-F503-4C26-876F-20F31B326D54}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E062836-A092-4CEC-91EB-8768324FE023}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7450,13 +6773,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7467,75 +6790,75 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="A3" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="139" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="139"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="89">
         <v>3.15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="89">
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>0.15</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -7545,187 +6868,187 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="61">
+      <c r="B13" s="137"/>
+      <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <f>+C13*D13</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="61">
+      <c r="B14" s="137"/>
+      <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="78">
         <f>+C14*D14</f>
         <v>10.880000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
         <v>12.380000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="91">
+      <c r="B18" s="137"/>
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f>+C18*D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="91">
+      <c r="B19" s="137"/>
+      <c r="C19" s="89">
         <f>3.15/2</f>
         <v>1.575</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="91">
         <v>3.2</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f>+C19*D19</f>
         <v>5.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="91">
+      <c r="B20" s="137"/>
+      <c r="C20" s="89">
         <f>(1.73+3.15)/2</f>
         <v>2.44</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="91">
         <v>3.2</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="78">
         <f>+C20*D20</f>
         <v>7.8079999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="80"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="91">
+      <c r="B22" s="96"/>
+      <c r="C22" s="89">
         <f>+C19</f>
         <v>1.575</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="91">
         <v>2</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="78">
         <f>+C22*D22</f>
         <v>3.15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="91">
+      <c r="B23" s="96"/>
+      <c r="C23" s="89">
         <f>+C20</f>
         <v>2.44</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D23" s="91">
         <v>2</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="78">
         <f>+C23*D23</f>
         <v>4.88</v>
       </c>
@@ -7738,47 +7061,47 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="144"/>
+      <c r="E27" s="138"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="60">
         <v>18.260000000000002</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="62">
-        <v>32.049999999999997</v>
-      </c>
-      <c r="G28" s="62">
+      <c r="E28" s="60">
+        <v>15.22</v>
+      </c>
+      <c r="G28" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E22))),2)</f>
         <v>25.94</v>
       </c>
@@ -7796,7 +7119,7 @@
         <v>51</v>
       </c>
       <c r="E29" s="5">
-        <v>56.31</v>
+        <v>58.27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7807,23 +7130,23 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="3">
@@ -7834,13 +7157,13 @@
       <c r="D33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="82">
         <f>((E28/(1000*0.9)))</f>
-        <v>3.5611111111111107E-2</v>
+        <v>1.6911111111111113E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="4">
@@ -7850,13 +7173,13 @@
       <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="83">
         <f>(B37/((E33/E7)^(1/2)))</f>
-        <v>0.73884845258106568</v>
+        <v>1.0721660686869487</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="81" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="4">
@@ -7866,15 +7189,15 @@
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="94">
-        <v>0.67</v>
-      </c>
-      <c r="F35" s="95" t="s">
+      <c r="E35" s="92">
+        <v>1.089</v>
+      </c>
+      <c r="F35" s="93" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="58" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="4">
@@ -7884,12 +7207,12 @@
       <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="86">
-        <v>25.207000000000001</v>
+      <c r="E36" s="84">
+        <v>24.300999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="3">
@@ -7907,32 +7230,32 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="61">
         <f>(E36*(E33/B37))</f>
-        <v>2.4934702160493827</v>
+        <v>1.141546975308642</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="61">
         <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
         <v>1.8</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="87">
+      <c r="E40" s="85">
         <f>+IF(B40&gt;B39,B40,B39)</f>
-        <v>2.4934702160493827</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7943,35 +7266,35 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="142"/>
-      <c r="C42" s="66">
-        <v>3</v>
-      </c>
-      <c r="D42" s="89">
+      <c r="B42" s="134"/>
+      <c r="C42" s="64">
+        <v>2</v>
+      </c>
+      <c r="D42" s="87">
         <v>10</v>
       </c>
-      <c r="E42" s="90">
+      <c r="E42" s="88">
         <f>C42*(PI()*(D42/10)^2)/4</f>
-        <v>2.3561944901923448</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="142"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="66">
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="64">
         <v>0</v>
       </c>
-      <c r="D43" s="89">
+      <c r="D43" s="87">
         <v>16</v>
       </c>
-      <c r="E43" s="90">
+      <c r="E43" s="88">
         <f>C43*(PI()*(D43/10)^2)/4</f>
         <v>0</v>
       </c>
@@ -7980,13 +7303,13 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="67" t="str">
+      <c r="D44" s="65" t="str">
         <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
         <v>M.C.</v>
       </c>
-      <c r="E44" s="87">
+      <c r="E44" s="85">
         <f>SUM(E42:E43)</f>
-        <v>2.3561944901923448</v>
+        <v>1.5707963267948966</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -7994,16 +7317,16 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="88"/>
+      <c r="E45" s="86"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="113"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="133"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -8018,14 +7341,14 @@
       </c>
       <c r="B48" s="5">
         <f>+E29/0.75</f>
-        <v>75.08</v>
+        <v>77.693333333333342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="5">
@@ -8042,14 +7365,14 @@
       </c>
       <c r="B50" s="5">
         <f>+IF(B49&gt;B48,0,B48-B49)</f>
-        <v>30.080000000000005</v>
-      </c>
-      <c r="C50" s="141" t="str">
+        <v>32.693333333333349</v>
+      </c>
+      <c r="C50" s="135" t="str">
         <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -8059,26 +7382,26 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="142" t="s">
+      <c r="A52" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="143" t="s">
+      <c r="B52" s="134"/>
+      <c r="C52" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="142"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="72">
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="70">
         <v>1</v>
       </c>
-      <c r="D53" s="73">
+      <c r="D53" s="71">
         <v>6</v>
       </c>
-      <c r="E53" s="74">
+      <c r="E53" s="72">
         <v>20</v>
       </c>
     </row>
@@ -8090,14 +7413,14 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="75">
+      <c r="B55" s="73">
         <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
         <v>42.750792830049903</v>
       </c>
-      <c r="C55" s="67" t="str">
+      <c r="C55" s="65" t="str">
         <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
@@ -8114,12 +7437,720 @@
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A42:B43"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="A52:B53"/>
     <mergeCell ref="C52:E52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF34DB6-F503-4C26-876F-20F31B326D54}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="142"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="89">
+        <v>3.15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="89">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="90">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="89">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="62">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="143"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="137"/>
+      <c r="C13" s="59">
+        <f>+E6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="78">
+        <f>+C13*D13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="59">
+        <f>3.2*0.2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D14" s="8">
+        <v>17</v>
+      </c>
+      <c r="E14" s="78">
+        <f>+C14*D14</f>
+        <v>10.880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="80">
+        <f>SUM(E13:E14)</f>
+        <v>12.380000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="137"/>
+      <c r="C18" s="89">
+        <v>0</v>
+      </c>
+      <c r="D18" s="91">
+        <v>0</v>
+      </c>
+      <c r="E18" s="78">
+        <f>+C18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="137"/>
+      <c r="C19" s="89">
+        <f>3.15/2</f>
+        <v>1.575</v>
+      </c>
+      <c r="D19" s="91">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="78">
+        <f>+C19*D19</f>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="137"/>
+      <c r="C20" s="89">
+        <f>(1.73+3.15)/2</f>
+        <v>2.44</v>
+      </c>
+      <c r="D20" s="91">
+        <v>3.2</v>
+      </c>
+      <c r="E20" s="78">
+        <f>+C20*D20</f>
+        <v>7.8079999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="78"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="89">
+        <f>+C19</f>
+        <v>1.575</v>
+      </c>
+      <c r="D22" s="91">
+        <v>2</v>
+      </c>
+      <c r="E22" s="78">
+        <f>+C22*D22</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="96"/>
+      <c r="C23" s="89">
+        <f>+C20</f>
+        <v>2.44</v>
+      </c>
+      <c r="D23" s="91">
+        <v>2</v>
+      </c>
+      <c r="E23" s="78">
+        <f>+C23*D23</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="138"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="138"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="60">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="60">
+        <v>33.46</v>
+      </c>
+      <c r="G28" s="60">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E22))),2)</f>
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>19.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5">
+        <v>58.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <f>+E6</f>
+        <v>0.4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="82">
+        <f>((E28/(1000*0.9)))</f>
+        <v>3.7177777777777782E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="83">
+        <f>(B37/((E33/E7)^(1/2)))</f>
+        <v>0.72311341197284873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="92">
+        <v>0.67</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="84">
+        <v>25.207000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3">
+        <f>+ROUND(B33-B34-B35-B36/2,2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="61">
+        <f>(E36*(E33/B37))</f>
+        <v>2.6031673456790125</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="61">
+        <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="85">
+        <f>+IF(B40&gt;B39,B40,B39)</f>
+        <v>2.6031673456790125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="134"/>
+      <c r="C42" s="64">
+        <v>3</v>
+      </c>
+      <c r="D42" s="87">
+        <v>10</v>
+      </c>
+      <c r="E42" s="88">
+        <f>C42*(PI()*(D42/10)^2)/4</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="64">
+        <v>0</v>
+      </c>
+      <c r="D43" s="87">
+        <v>16</v>
+      </c>
+      <c r="E43" s="88">
+        <f>C43*(PI()*(D43/10)^2)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="65" t="str">
+        <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E44" s="85">
+        <f>SUM(E42:E43)</f>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="86"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="133"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+E29/0.75</f>
+        <v>77.693333333333342</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B37))/1000)</f>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="5">
+        <f>+IF(B49&gt;B48,0,B48-B49)</f>
+        <v>32.693333333333349</v>
+      </c>
+      <c r="C50" s="135" t="str">
+        <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="134"/>
+      <c r="C52" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="70">
+        <v>1</v>
+      </c>
+      <c r="D53" s="71">
+        <v>6</v>
+      </c>
+      <c r="E53" s="72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="73">
+        <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
+        <v>42.750792830049903</v>
+      </c>
+      <c r="C55" s="65" t="str">
+        <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -8127,12 +8158,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
+++ b/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\23-011_ILAG_Viviendas\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CC3AF-68F0-4777-BCCB-82A8307B28FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C262C-9ED3-4214-8816-789368D15C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="18000" windowHeight="9360" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOSAS VIGUETAS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="115">
   <si>
     <t>Luz</t>
   </si>
@@ -357,6 +357,115 @@
   </si>
   <si>
     <t>Carga escalera L</t>
+  </si>
+  <si>
+    <t>Análisis de Cargas</t>
+  </si>
+  <si>
+    <t>Carga última: 1,4D</t>
+  </si>
+  <si>
+    <t>Idem Anterior</t>
+  </si>
+  <si>
+    <t>Carga última: 1,2D + 1,6L</t>
+  </si>
+  <si>
+    <t>Carga de losa D1</t>
+  </si>
+  <si>
+    <t>Carga de losa D2</t>
+  </si>
+  <si>
+    <t>Carga de losa L1</t>
+  </si>
+  <si>
+    <t>Carga de losa L2</t>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uV102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uV103</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -669,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -933,9 +1042,105 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,88 +1159,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1047,33 +1189,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,13 +1629,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>198286</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>9190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,13 +1673,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>112571</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>75952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1597,13 +1717,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>160190</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>47333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1646,13 +1766,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>198286</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1690,13 +1810,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>112571</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>75952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1734,13 +1854,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>160190</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>47333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2179,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,13 +2318,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2221,21 +2341,21 @@
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="119"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2275,25 +2395,25 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="123"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122" t="s">
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="123"/>
+      <c r="K5" s="122"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2317,10 +2437,10 @@
       <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2331,10 +2451,10 @@
       <c r="I6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="111"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2355,10 +2475,10 @@
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>55</v>
@@ -2366,10 +2486,10 @@
       <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="111"/>
+      <c r="K7" s="124"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2393,10 +2513,10 @@
       <c r="C8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="125">
         <v>2</v>
       </c>
-      <c r="E8" s="113"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="2"/>
       <c r="G8" s="26" t="s">
         <v>4</v>
@@ -2407,10 +2527,10 @@
       <c r="I8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="125">
         <v>2</v>
       </c>
-      <c r="K8" s="113"/>
+      <c r="K8" s="126"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2432,10 +2552,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="145"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="2"/>
       <c r="G9" s="26" t="s">
         <v>53</v>
@@ -2444,10 +2564,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="144" t="s">
+      <c r="J9" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="145"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2487,21 +2607,21 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2777,10 +2897,10 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="116"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="27">
         <v>0</v>
       </c>
@@ -2792,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="116"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="27">
         <f>0.2*2</f>
         <v>0.4</v>
@@ -2889,21 +3009,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="114" t="s">
+      <c r="G22" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2954,8 +3074,8 @@
         <f>+B24*100</f>
         <v>655</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="2"/>
       <c r="G24" s="33" t="s">
         <v>50</v>
@@ -2967,10 +3087,10 @@
         <f>+H24*100</f>
         <v>885</v>
       </c>
-      <c r="J24" s="124" t="s">
+      <c r="J24" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="125"/>
+      <c r="K24" s="102"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3010,19 +3130,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="2"/>
       <c r="E26" s="17"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="131" t="s">
+      <c r="G26" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
       <c r="J26" s="2"/>
       <c r="K26" s="17"/>
       <c r="L26" s="2"/>
@@ -3039,20 +3159,20 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="99" t="s">
+      <c r="G27" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="99"/>
+      <c r="H27" s="111"/>
       <c r="I27" s="19" t="s">
         <v>57</v>
       </c>
@@ -3072,20 +3192,20 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="99"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="23">
         <v>3.15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="99" t="s">
+      <c r="G28" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="99"/>
+      <c r="H28" s="111"/>
       <c r="I28" s="23">
         <v>3.15</v>
       </c>
@@ -3105,20 +3225,20 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="23">
         <v>0.13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="99" t="s">
+      <c r="G29" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="99"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="23">
         <v>0.13</v>
       </c>
@@ -3138,20 +3258,20 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="99"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="23">
         <v>0.05</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="17"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="99" t="s">
+      <c r="G30" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="99"/>
+      <c r="H30" s="111"/>
       <c r="I30" s="23">
         <v>0.05</v>
       </c>
@@ -3171,29 +3291,29 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="99"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="46">
         <v>845</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="105"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="99" t="s">
+      <c r="G31" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="99"/>
+      <c r="H31" s="111"/>
       <c r="I31" s="76">
         <v>1254</v>
       </c>
-      <c r="J31" s="104" t="s">
+      <c r="J31" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="105"/>
+      <c r="K31" s="137"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3233,23 +3353,23 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="str">
+      <c r="A33" s="108" t="str">
         <f>IF(C31&gt;C24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
         <v>M Admisible &gt; M Total → Buenas Condiciones</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="106" t="str">
+      <c r="G33" s="108" t="str">
         <f>IF(I31&gt;I24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
         <v>M Admisible &gt; M Total → Buenas Condiciones</v>
       </c>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3289,25 +3409,25 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102" t="s">
+      <c r="B35" s="133"/>
+      <c r="C35" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102" t="s">
+      <c r="H35" s="133"/>
+      <c r="I35" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="102"/>
-      <c r="K35" s="103"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="135"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -3334,20 +3454,20 @@
       <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="130"/>
-      <c r="G37" s="128" t="s">
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
+      <c r="G37" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="130"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
@@ -3389,12 +3509,12 @@
         <f>+(1/6)*($B$9^(1/2))*($B$7*1000)*(1000*($C$29+$C$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="C40" s="126" t="str">
+      <c r="C40" s="103" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="127"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
       <c r="G40" s="49" t="s">
         <v>52</v>
       </c>
@@ -3402,12 +3522,12 @@
         <f>+(1/6)*($H$9^(1/2))*($H$7*1000)*(1000*($I$29+$I$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="I40" s="126" t="str">
+      <c r="I40" s="103" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="J40" s="126"/>
-      <c r="K40" s="127"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -3993,6 +4113,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="C40:E40"/>
@@ -4009,37 +4160,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4050,8 +4170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99EB27-35A6-4157-8643-D667BDE52886}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,13 +4279,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="A10" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -4178,7 +4298,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="94" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>7</v>
@@ -4188,10 +4308,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -4205,10 +4325,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -4254,59 +4374,56 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="91">
-        <v>0</v>
+      <c r="A18" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="97">
+        <v>3.2</v>
       </c>
       <c r="E18" s="78">
         <f>+C18*D18</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="89">
-        <v>0</v>
-      </c>
-      <c r="D19" s="91">
-        <v>3.2</v>
+      <c r="A19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="97">
+        <v>2</v>
       </c>
       <c r="E19" s="78">
         <f>+C19*D19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="7"/>
       <c r="D20" s="97"/>
       <c r="E20" s="78"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="89">
-        <f>+C19</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="91">
-        <v>2</v>
-      </c>
-      <c r="E21" s="78">
-        <f>+C21*D21</f>
-        <v>0</v>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="80">
+        <f>(E15+E18)*1.4</f>
+        <v>19.572000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4317,13 +4434,13 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="95"/>
@@ -4333,15 +4450,15 @@
       <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="138"/>
+      <c r="E25" s="144"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -4359,7 +4476,7 @@
       </c>
       <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>14.86</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4368,7 +4485,7 @@
       </c>
       <c r="B27" s="5">
         <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>19.5</v>
+        <v>22.02</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -4386,13 +4503,13 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="95"/>
@@ -4522,10 +4639,10 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="134"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="64">
         <v>3</v>
       </c>
@@ -4542,8 +4659,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="134"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="64">
         <v>0</v>
       </c>
@@ -4576,13 +4693,13 @@
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -4623,12 +4740,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>5.4933333333333323</v>
       </c>
-      <c r="C48" s="135" t="str">
+      <c r="C48" s="146" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -4638,19 +4755,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="136" t="s">
+      <c r="B50" s="145"/>
+      <c r="C50" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="134"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="70">
         <v>1</v>
       </c>
@@ -4693,24 +4810,24 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4722,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96D40F-C532-48BA-94F1-7E5FA3C03385}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,13 +4948,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
@@ -4845,6 +4962,9 @@
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
+      <c r="F11" s="148" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -4858,12 +4978,13 @@
       <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="F12" s="148"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -4875,12 +4996,13 @@
         <f>+C13*D13</f>
         <v>1.5</v>
       </c>
+      <c r="F13" s="148"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -4892,6 +5014,7 @@
         <f>+C14*D14</f>
         <v>10.880000000000003</v>
       </c>
+      <c r="F14" s="148"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
@@ -4904,6 +5027,7 @@
         <f>SUM(E13:E14)</f>
         <v>12.380000000000003</v>
       </c>
+      <c r="F15" s="148"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
@@ -4911,6 +5035,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="80"/>
+      <c r="F16" s="148"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
@@ -4924,12 +5049,13 @@
       <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="F17" s="148"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="137"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="89">
         <v>0</v>
       </c>
@@ -4940,12 +5066,13 @@
         <f>+C18*D18</f>
         <v>0</v>
       </c>
+      <c r="F18" s="148"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="89">
         <v>0.5</v>
       </c>
@@ -4956,6 +5083,7 @@
         <f>+C19*D19</f>
         <v>1.6</v>
       </c>
+      <c r="F19" s="148"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
@@ -4963,6 +5091,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="97"/>
       <c r="E20" s="78"/>
+      <c r="F20" s="148"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -4980,6 +5109,7 @@
         <f>+C21*D21</f>
         <v>1</v>
       </c>
+      <c r="F21" s="148"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -4987,15 +5117,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="F22" s="148"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
@@ -5005,15 +5136,15 @@
       <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="138"/>
+      <c r="E25" s="144"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5058,13 +5189,13 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
@@ -5194,10 +5325,10 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="134"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="64">
         <v>3</v>
       </c>
@@ -5214,8 +5345,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="134"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="64">
         <v>0</v>
       </c>
@@ -5248,13 +5379,13 @@
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -5295,12 +5426,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>5.4933333333333323</v>
       </c>
-      <c r="C48" s="135" t="str">
+      <c r="C48" s="146" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -5310,19 +5441,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="136" t="s">
+      <c r="B50" s="145"/>
+      <c r="C50" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="134"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="70">
         <v>1</v>
       </c>
@@ -5364,14 +5495,8 @@
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
+  <mergeCells count="19">
+    <mergeCell ref="F11:F22"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:E50"/>
@@ -5383,6 +5508,13 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5394,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B2BF4C-C0F8-4FE7-949B-271367FB6829}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5503,13 +5635,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="A10" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -5522,7 +5654,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="94" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>7</v>
@@ -5532,10 +5664,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -5549,10 +5681,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59">
         <f>4.2*0.2</f>
         <v>0.84000000000000008</v>
@@ -5598,35 +5730,35 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="91">
-        <v>0</v>
+      <c r="A18" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="97">
+        <v>3.2</v>
       </c>
       <c r="E18" s="78">
         <f>+C18*D18</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="89">
+      <c r="A19" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="7">
         <v>0.5</v>
       </c>
-      <c r="D19" s="91">
-        <v>3.2</v>
+      <c r="D19" s="97">
+        <v>2</v>
       </c>
       <c r="E19" s="78">
         <f>+C19*D19</f>
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5636,21 +5768,18 @@
       <c r="D20" s="97"/>
       <c r="E20" s="78"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="89">
-        <f>+C19</f>
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="91">
-        <v>2</v>
-      </c>
-      <c r="E21" s="78">
-        <f>+C21*D21</f>
-        <v>1</v>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="80">
+        <f>1.4*(E15+E18)</f>
+        <v>24.332000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5661,13 +5790,13 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="95"/>
@@ -5677,15 +5806,15 @@
       <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="138"/>
+      <c r="E25" s="144"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5703,7 +5832,7 @@
       </c>
       <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>22.46</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5712,7 +5841,7 @@
       </c>
       <c r="B27" s="5">
         <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>24.85</v>
+        <v>27.37</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -5730,13 +5859,13 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="95"/>
@@ -5866,10 +5995,10 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="134"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="64"/>
       <c r="D40" s="87">
         <v>10</v>
@@ -5884,8 +6013,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="134"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="64">
         <v>2</v>
       </c>
@@ -5918,13 +6047,13 @@
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -5965,12 +6094,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>7.7600000000000051</v>
       </c>
-      <c r="C48" s="135" t="str">
+      <c r="C48" s="146" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -5980,19 +6109,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="136" t="s">
+      <c r="B50" s="145"/>
+      <c r="C50" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="134"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="70">
         <v>1</v>
       </c>
@@ -6034,25 +6163,26 @@
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6062,10 +6192,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1521795D-E2A5-496C-B487-460167F8BB74}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6173,13 +6303,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="A10" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -6192,7 +6322,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="94" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>7</v>
@@ -6202,10 +6332,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>3.4000000000000002E-2</v>
@@ -6219,10 +6349,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59" t="s">
         <v>38</v>
       </c>
@@ -6266,341 +6396,333 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="91">
-        <v>0</v>
+      <c r="A18" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="97">
+        <v>3.2</v>
       </c>
       <c r="E18" s="78">
         <f>+C18*D18</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="89">
+      <c r="A19" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="7">
         <v>0.5</v>
       </c>
-      <c r="D19" s="91">
-        <v>3.2</v>
+      <c r="D19" s="97">
+        <v>2</v>
       </c>
       <c r="E19" s="78">
         <f>+C19*D19</f>
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="89">
+      <c r="A20" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="D20" s="97">
         <v>0.5</v>
-      </c>
-      <c r="D20" s="91">
-        <v>2</v>
       </c>
       <c r="E20" s="78">
         <f>+C20*D20</f>
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="89">
+      <c r="A21" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="7">
         <v>1.3</v>
       </c>
-      <c r="D21" s="91">
-        <v>0.5</v>
+      <c r="D21" s="97">
+        <v>2</v>
       </c>
       <c r="E21" s="78">
         <f>+C21*D21</f>
-        <v>0.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="89">
-        <v>1.3</v>
-      </c>
-      <c r="D22" s="91">
-        <v>2</v>
-      </c>
-      <c r="E22" s="78">
-        <f>+C22*D22</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="78"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="80">
+        <f>1.2*(E15+E18+E20)+1.6*(E19+E21)</f>
+        <v>9.48</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="138" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="138"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="60">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="60">
-        <v>2.41</v>
-      </c>
-      <c r="G27" s="60">
-        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>3.98</v>
-      </c>
+      <c r="E27" s="144"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="5">
-        <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>0.74</v>
+        <v>75</v>
+      </c>
+      <c r="B28" s="60">
+        <v>18.260000000000002</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="60">
+        <v>2.41</v>
+      </c>
+      <c r="G28" s="60">
+        <f>ROUND((((1.2*(E15+E18))+(1.6*E20))),2)</f>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="e">
+        <f>ROUND(((E15+#REF!)*B6/2),2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>6.07</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <f>+E6</f>
         <v>0.17</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="82">
-        <f>((E27/(1000*0.9)))</f>
-        <v>2.6777777777777781E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.03</v>
-      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="83">
-        <f>(B36/((E32/E7)^(1/2)))</f>
-        <v>1.123494843735571</v>
+        <v>26</v>
+      </c>
+      <c r="E33" s="82">
+        <f>((E28/(1000*0.9)))</f>
+        <v>2.6777777777777781E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
-        <v>64</v>
+      <c r="A34" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="92">
-        <v>1.089</v>
-      </c>
-      <c r="F34" s="93" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="E34" s="83">
+        <f>(B37/((E33/E7)^(1/2)))</f>
+        <v>1.123494843735571</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
-        <v>24</v>
+      <c r="A35" s="81" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="4">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="92">
+        <v>1.089</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E36" s="84">
         <v>24.300999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="3">
-        <f>+ROUND(B32-B33-B34-B35/2,2)</f>
+      <c r="B37" s="3">
+        <f>+ROUND(B33-B34-B35-B36/2,2)</f>
         <v>0.13</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="61">
-        <f>(E35*(E32/B36))</f>
-        <v>0.50055905982905979</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="61">
+        <f>(E36*(E33/B37))</f>
+        <v>0.50055905982905979</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="61">
-        <f>+ROUND(((1.4*$E$7*$B$36)/$B$8)*10000,3)</f>
+      <c r="B40" s="61">
+        <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="94" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="85">
-        <f>+IF(B39&gt;B38,B39,B38)</f>
+      <c r="E40" s="85">
+        <f>+IF(B40&gt;B39,B40,B39)</f>
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="134"/>
-      <c r="C41" s="64">
-        <v>0</v>
-      </c>
-      <c r="D41" s="87">
-        <v>10</v>
-      </c>
-      <c r="E41" s="88">
-        <f>C41*(PI()*(D41/10)^2)/4</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="134"/>
-      <c r="B42" s="134"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="64">
         <v>0</v>
       </c>
       <c r="D42" s="87">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="88">
         <f>C42*(PI()*(D42/10)^2)/4</f>
         <v>0</v>
       </c>
+      <c r="F42" s="10"/>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="65" t="str">
-        <f>+IF(E43&gt;E39,"B.C.","M.C.")</f>
-        <v>M.C.</v>
-      </c>
-      <c r="E43" s="85">
-        <f>SUM(E41:E42)</f>
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="64">
+        <v>0</v>
+      </c>
+      <c r="D43" s="87">
+        <v>16</v>
+      </c>
+      <c r="E43" s="88">
+        <f>C43*(PI()*(D43/10)^2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6608,129 +6730,152 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="65" t="str">
+        <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E44" s="85">
+        <f>SUM(E42:E43)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="86"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="133"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="5">
-        <f>+E28/0.75</f>
-        <v>8.0933333333333337</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
-        <v>52</v>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="B48" s="5">
-        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B36))/1000)</f>
-        <v>21.666666666666664</v>
+        <f>+E29/0.75</f>
+        <v>8.0933333333333337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B37))/1000)</f>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="5">
-        <f>+IF(B48&gt;B47,0,B47-B48)</f>
+      <c r="B50" s="5">
+        <f>+IF(B49&gt;B48,0,B48-B49)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="135" t="str">
-        <f>+IF(B48&gt;B47,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+      <c r="C50" s="146" t="str">
+        <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ARM. MINIMA DE CORTE</v>
       </c>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="134" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="134"/>
-      <c r="C51" s="136" t="s">
+      <c r="B52" s="145"/>
+      <c r="C52" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="70">
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="145"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="70">
         <v>1</v>
       </c>
-      <c r="D52" s="71">
+      <c r="D53" s="71">
         <v>6</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E53" s="72">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="73">
-        <f>+((((2*(PI()*(D52/10)^2)/4)/(100^2))*B8*B36)/(E52/100))*1000</f>
-        <v>15.437786299740242</v>
-      </c>
-      <c r="C54" s="65" t="str">
-        <f>+IF(B54&gt;B49,"B.C.","M.C.")</f>
-        <v>B.C.</v>
-      </c>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="73">
+        <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
+        <v>15.437786299740242</v>
+      </c>
+      <c r="C55" s="65" t="str">
+        <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A42:B43"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -6738,16 +6883,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6757,10 +6892,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E062836-A092-4CEC-91EB-8768324FE023}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6868,13 +7003,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="A10" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -6887,7 +7022,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="94" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D12" s="94" t="s">
         <v>7</v>
@@ -6897,10 +7032,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -6914,10 +7049,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -6963,300 +7098,296 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="91">
-        <v>0</v>
+      <c r="A18" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="138"/>
+      <c r="C18" s="7">
+        <f>3.15/2</f>
+        <v>1.575</v>
+      </c>
+      <c r="D18" s="97">
+        <v>3.2</v>
       </c>
       <c r="E18" s="78">
         <f>+C18*D18</f>
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="89">
-        <f>3.15/2</f>
-        <v>1.575</v>
-      </c>
-      <c r="D19" s="91">
+      <c r="A19" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="7">
+        <f>(1.73+3.15)/2</f>
+        <v>2.44</v>
+      </c>
+      <c r="D19" s="97">
         <v>3.2</v>
       </c>
       <c r="E19" s="78">
         <f>+C19*D19</f>
-        <v>5.04</v>
+        <v>7.8079999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="89">
-        <f>(1.73+3.15)/2</f>
-        <v>2.44</v>
-      </c>
-      <c r="D20" s="91">
-        <v>3.2</v>
+      <c r="A20" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="7">
+        <f>+C18</f>
+        <v>1.575</v>
+      </c>
+      <c r="D20" s="97">
+        <v>2</v>
       </c>
       <c r="E20" s="78">
         <f>+C20*D20</f>
-        <v>7.8079999999999998</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="96" t="s">
+        <v>109</v>
+      </c>
       <c r="B21" s="96"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="7">
+        <f>+C19</f>
+        <v>2.44</v>
+      </c>
+      <c r="D21" s="97">
+        <v>2</v>
+      </c>
+      <c r="E21" s="78">
+        <f>+C21*D21</f>
+        <v>4.88</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="89">
-        <f>+C19</f>
-        <v>1.575</v>
-      </c>
-      <c r="D22" s="91">
-        <v>2</v>
-      </c>
-      <c r="E22" s="78">
-        <f>+C22*D22</f>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="89">
-        <f>+C20</f>
-        <v>2.44</v>
-      </c>
-      <c r="D23" s="91">
-        <v>2</v>
-      </c>
-      <c r="E23" s="78">
-        <f>+C23*D23</f>
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="131" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="78"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="80">
+        <f>1.2*(E15+E18)+1.6*E20</f>
+        <v>25.943999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="149">
+        <f>ROUND(1.2*(E15+E19)+1.6*E21,2)</f>
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="145"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="150">
+        <f>(1.2*17.38+1.6*1)*3.15/2</f>
+        <v>35.368200000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="145"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="150">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="138" t="s">
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="138" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="138"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="E30" s="144"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B31" s="60">
         <v>18.260000000000002</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E31" s="60">
         <v>15.22</v>
       </c>
-      <c r="G28" s="60">
-        <f>ROUND((((1.2*(E15+E19))+(1.6*E22))),2)</f>
+      <c r="G31" s="60">
+        <f>ROUND((((1.2*(E15+E18))+(1.6*E20))),2)</f>
         <v>25.94</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="5">
-        <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>19.5</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="B32" s="5" t="e">
+        <f>ROUND(((E15+#REF!)*B6/2),2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E32" s="5">
         <v>58.27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="131" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B36" s="3">
         <f>+E6</f>
         <v>0.4</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="82">
-        <f>((E28/(1000*0.9)))</f>
-        <v>1.6911111111111113E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="83">
-        <f>(B37/((E33/E7)^(1/2)))</f>
-        <v>1.0721660686869487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="92">
-        <v>1.089</v>
-      </c>
-      <c r="F35" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.01</v>
-      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="84">
-        <v>24.300999999999998</v>
+        <v>26</v>
+      </c>
+      <c r="E36" s="82">
+        <f>((E31/(1000*0.9)))</f>
+        <v>1.6911111111111113E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3">
-        <f>+ROUND(B33-B34-B35-B36/2,2)</f>
-        <v>0.36</v>
+      <c r="A37" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.03</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="83">
+        <f>(B40/((E36/E7)^(1/2)))</f>
+        <v>1.0721660686869487</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="92">
+        <v>1.089</v>
+      </c>
+      <c r="F38" s="93" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="61">
-        <f>(E36*(E33/B37))</f>
-        <v>1.141546975308642</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.01</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="84">
+        <v>24.300999999999998</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="61">
-        <f>+ROUND(((1.4*$E$7*$B$37)/$B$8)*10000,3)</f>
-        <v>1.8</v>
+      <c r="A40" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3">
+        <f>+ROUND(B36-B37-B38-B39/2,2)</f>
+        <v>0.36</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="85">
-        <f>+IF(B40&gt;B39,B40,B39)</f>
-        <v>1.8</v>
-      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -7266,144 +7397,149 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="134"/>
-      <c r="C42" s="64">
-        <v>2</v>
-      </c>
-      <c r="D42" s="87">
-        <v>10</v>
-      </c>
-      <c r="E42" s="88">
-        <f>C42*(PI()*(D42/10)^2)/4</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" t="s">
-        <v>95</v>
-      </c>
+      <c r="A42" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="61">
+        <f>(E39*(E36/B40))</f>
+        <v>1.141546975308642</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="64">
-        <v>0</v>
-      </c>
-      <c r="D43" s="87">
-        <v>16</v>
-      </c>
-      <c r="E43" s="88">
-        <f>C43*(PI()*(D43/10)^2)/4</f>
-        <v>0</v>
+      <c r="A43" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="61">
+        <f>+ROUND(((1.4*$E$7*$B$40)/$B$8)*10000,3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="85">
+        <f>+IF(B43&gt;B42,B43,B42)</f>
+        <v>1.8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="65" t="str">
-        <f>+IF(E44&gt;E40,"B.C.","M.C.")</f>
-        <v>M.C.</v>
-      </c>
-      <c r="E44" s="85">
-        <f>SUM(E42:E43)</f>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="145" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="145"/>
+      <c r="C45" s="64">
+        <v>2</v>
+      </c>
+      <c r="D45" s="87">
+        <v>10</v>
+      </c>
+      <c r="E45" s="88">
+        <f>C45*(PI()*(D45/10)^2)/4</f>
         <v>1.5707963267948966</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="86"/>
+      <c r="F45" s="10"/>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="131" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="133"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="64">
+        <v>0</v>
+      </c>
+      <c r="D46" s="87">
+        <v>16</v>
+      </c>
+      <c r="E46" s="88">
+        <f>C46*(PI()*(D46/10)^2)/4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="65" t="str">
+        <f>+IF(E47&gt;E43,"B.C.","M.C.")</f>
+        <v>M.C.</v>
+      </c>
+      <c r="E47" s="85">
+        <f>SUM(E45:E46)</f>
+        <v>1.5707963267948966</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="5">
-        <f>+E29/0.75</f>
-        <v>77.693333333333342</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="5">
-        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B37))/1000)</f>
-        <v>44.999999999999993</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E48" s="86"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="114"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="5">
-        <f>+IF(B49&gt;B48,0,B48-B49)</f>
-        <v>32.693333333333349</v>
-      </c>
-      <c r="C50" s="135" t="str">
-        <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
-        <v>ES NECESARIA ARM. DE CORTE</v>
-      </c>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="5">
+        <f>+E32/0.75</f>
+        <v>77.693333333333342</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="134" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B40))/1000)</f>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="70">
-        <v>1</v>
-      </c>
-      <c r="D53" s="71">
-        <v>6</v>
-      </c>
-      <c r="E53" s="72">
-        <v>20</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="5">
+        <f>+IF(B52&gt;B51,0,B51-B52)</f>
+        <v>32.693333333333349</v>
+      </c>
+      <c r="C53" s="146" t="str">
+        <f>+IF(B52&gt;B51,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -7412,33 +7548,70 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="75" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="145"/>
+      <c r="C55" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="145"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="70">
+        <v>1</v>
+      </c>
+      <c r="D56" s="71">
+        <v>6</v>
+      </c>
+      <c r="E56" s="72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="73">
-        <f>+((((2*(PI()*(D53/10)^2)/4)/(100^2))*B8*B37)/(E53/100))*1000</f>
+      <c r="B58" s="73">
+        <f>+((((2*(PI()*(D56/10)^2)/4)/(100^2))*B8*B40)/(E56/100))*1000</f>
         <v>42.750792830049903</v>
       </c>
-      <c r="C55" s="65" t="str">
-        <f>+IF(B55&gt;B50,"B.C.","M.C.")</f>
+      <c r="C58" s="65" t="str">
+        <f>+IF(B58&gt;B53,"B.C.","M.C.")</f>
         <v>B.C.</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -7448,14 +7621,8 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A23:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7576,13 +7743,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -7605,10 +7772,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -7622,10 +7789,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -7671,10 +7838,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="137"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="89">
         <v>0</v>
       </c>
@@ -7687,10 +7854,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="89">
         <f>3.15/2</f>
         <v>1.575</v>
@@ -7704,10 +7871,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="89">
         <f>(1.73+3.15)/2</f>
         <v>2.44</v>
@@ -7769,13 +7936,13 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="95"/>
@@ -7785,15 +7952,15 @@
       <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="138"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="138"/>
+      <c r="E27" s="144"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -7838,13 +8005,13 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="95"/>
@@ -7974,10 +8141,10 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="134"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="64">
         <v>3</v>
       </c>
@@ -7994,8 +8161,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="134"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="64">
         <v>0</v>
       </c>
@@ -8028,13 +8195,13 @@
       <c r="E45" s="86"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -8075,12 +8242,12 @@
         <f>+IF(B49&gt;B48,0,B48-B49)</f>
         <v>32.693333333333349</v>
       </c>
-      <c r="C50" s="135" t="str">
+      <c r="C50" s="146" t="str">
         <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -8090,19 +8257,19 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="136" t="s">
+      <c r="B52" s="145"/>
+      <c r="C52" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="134"/>
+      <c r="A53" s="145"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="70">
         <v>1</v>
       </c>
@@ -8145,12 +8312,12 @@
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -8158,12 +8325,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
+++ b/Proyectos/23-011_ILAG_Viviendas/01_Hojas de calculo/DP - Calculos Hormigon - Rev_02.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\23-011_ILAG_Viviendas\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C262C-9ED3-4214-8816-789368D15C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5822B490-EEDD-45FA-AB70-BBEF237D17F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="18000" windowHeight="9360" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="18000" windowHeight="9360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOSAS VIGUETAS" sheetId="1" r:id="rId1"/>
     <sheet name="VIGA 100-101 Arm Inf" sheetId="7" r:id="rId2"/>
     <sheet name="VIGA 100-101 Arm Sup" sheetId="5" r:id="rId3"/>
-    <sheet name="VIGA 102" sheetId="6" r:id="rId4"/>
-    <sheet name="VIGA 103" sheetId="8" r:id="rId5"/>
-    <sheet name="VIGA 104-105 Arm Inf" sheetId="10" r:id="rId6"/>
-    <sheet name="VIGA 104-105 Arm Sup" sheetId="9" r:id="rId7"/>
+    <sheet name="VIGA 102 V2" sheetId="12" r:id="rId4"/>
+    <sheet name="VIGA 102" sheetId="6" r:id="rId5"/>
+    <sheet name="VIGA 103" sheetId="8" r:id="rId6"/>
+    <sheet name="VIGA 104-105 Arm Inf" sheetId="10" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId8"/>
+    <sheet name="VIGA 104-105 Arm Sup" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="126">
   <si>
     <t>Luz</t>
   </si>
@@ -466,6 +468,39 @@
       </rPr>
       <t>uV103</t>
     </r>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>psit</t>
+  </si>
+  <si>
+    <t>psie</t>
+  </si>
+  <si>
+    <t>psis</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>Ktr</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>(cb+ktr)/db</t>
+  </si>
+  <si>
+    <t>a utilizar</t>
   </si>
 </sst>
 </file>
@@ -778,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1048,6 +1083,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1069,18 +1196,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1090,78 +1205,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,23 +1235,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,6 +1550,143 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D090A7-451D-4F5A-A045-2D88630A6570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="13068300"/>
+          <a:ext cx="13914286" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112571</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9CD867-9F55-4614-9B01-DCD2404974A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="15925800"/>
+          <a:ext cx="13828571" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160190</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68AE33D-FDA7-440F-92F0-D305A77972A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18211800"/>
+          <a:ext cx="13876190" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198286</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC45261-5F7F-4192-B725-0A661670BCFC}"/>
             </a:ext>
           </a:extLst>
@@ -1623,7 +1804,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1760,7 +1941,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1897,7 +2078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2318,13 +2499,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2341,21 +2522,21 @@
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2395,25 +2576,25 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="122"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121" t="s">
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="122"/>
+      <c r="K5" s="130"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2437,10 +2618,10 @@
       <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="124"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2451,10 +2632,10 @@
       <c r="I6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="124"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2475,10 +2656,10 @@
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="124"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>55</v>
@@ -2486,10 +2667,10 @@
       <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="124"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2513,10 +2694,10 @@
       <c r="C8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="119">
         <v>2</v>
       </c>
-      <c r="E8" s="126"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="2"/>
       <c r="G8" s="26" t="s">
         <v>4</v>
@@ -2527,10 +2708,10 @@
       <c r="I8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="125">
+      <c r="J8" s="119">
         <v>2</v>
       </c>
-      <c r="K8" s="126"/>
+      <c r="K8" s="120"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2552,10 +2733,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="132"/>
       <c r="F9" s="2"/>
       <c r="G9" s="26" t="s">
         <v>53</v>
@@ -2564,10 +2745,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="128"/>
+      <c r="K9" s="132"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2607,21 +2788,21 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2897,10 +3078,10 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="27">
         <v>0</v>
       </c>
@@ -2912,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H19" s="123"/>
       <c r="I19" s="27">
         <f>0.2*2</f>
         <v>0.4</v>
@@ -3009,21 +3190,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3074,8 +3255,8 @@
         <f>+B24*100</f>
         <v>655</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
       <c r="F24" s="2"/>
       <c r="G24" s="33" t="s">
         <v>50</v>
@@ -3087,10 +3268,10 @@
         <f>+H24*100</f>
         <v>885</v>
       </c>
-      <c r="J24" s="101" t="s">
+      <c r="J24" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="102"/>
+      <c r="K24" s="134"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3130,19 +3311,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="114"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="2"/>
       <c r="E26" s="17"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="112" t="s">
+      <c r="G26" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="142"/>
       <c r="J26" s="2"/>
       <c r="K26" s="17"/>
       <c r="L26" s="2"/>
@@ -3159,20 +3340,20 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="111"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="20"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="111" t="s">
+      <c r="G27" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="111"/>
+      <c r="H27" s="106"/>
       <c r="I27" s="19" t="s">
         <v>57</v>
       </c>
@@ -3192,20 +3373,20 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="23">
         <v>3.15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="111"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="23">
         <v>3.15</v>
       </c>
@@ -3225,20 +3406,20 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="23">
         <v>0.13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="111" t="s">
+      <c r="G29" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="111"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="23">
         <v>0.13</v>
       </c>
@@ -3258,20 +3439,20 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="111"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="23">
         <v>0.05</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="17"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="111" t="s">
+      <c r="G30" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="111"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="23">
         <v>0.05</v>
       </c>
@@ -3291,29 +3472,29 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="111"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="46">
         <v>845</v>
       </c>
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="137"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="111" t="s">
+      <c r="G31" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="111"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="76">
         <v>1254</v>
       </c>
-      <c r="J31" s="136" t="s">
+      <c r="J31" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="137"/>
+      <c r="K31" s="112"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3353,23 +3534,23 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="str">
+      <c r="A33" s="113" t="str">
         <f>IF(C31&gt;C24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
         <v>M Admisible &gt; M Total → Buenas Condiciones</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="108" t="str">
+      <c r="G33" s="113" t="str">
         <f>IF(I31&gt;I24,"M Admisible &gt; M Total → Buenas Condiciones","M Admisible &lt; M Total  → Malas Condiciones")</f>
         <v>M Admisible &gt; M Total → Buenas Condiciones</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3409,25 +3590,25 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="134" t="s">
+      <c r="B35" s="108"/>
+      <c r="C35" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="134"/>
-      <c r="E35" s="135"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="132" t="s">
+      <c r="G35" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="133"/>
-      <c r="I35" s="134" t="s">
+      <c r="H35" s="108"/>
+      <c r="I35" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="134"/>
-      <c r="K35" s="135"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -3454,20 +3635,20 @@
       <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="107"/>
-      <c r="G37" s="105" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
+      <c r="G37" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="107"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="139"/>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
@@ -3509,12 +3690,12 @@
         <f>+(1/6)*($B$9^(1/2))*($B$7*1000)*(1000*($C$29+$C$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="C40" s="103" t="str">
+      <c r="C40" s="135" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="136"/>
       <c r="G40" s="49" t="s">
         <v>52</v>
       </c>
@@ -3522,12 +3703,12 @@
         <f>+(1/6)*($H$9^(1/2))*($H$7*1000)*(1000*($I$29+$I$30-0.03))/1000</f>
         <v>124.99999999999999</v>
       </c>
-      <c r="I40" s="103" t="str">
+      <c r="I40" s="135" t="str">
         <f>+IF($B$40&gt;$B$39,"NO ES NECESARIA ARM. DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>NO ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -4113,37 +4294,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="C40:E40"/>
@@ -4160,6 +4310,37 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4170,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99EB27-35A6-4157-8643-D667BDE52886}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E21"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,13 +4365,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4201,22 +4382,22 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -4266,10 +4447,10 @@
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -4279,13 +4460,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -4308,10 +4489,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -4325,20 +4506,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="59">
-        <f>3.2*0.2</f>
-        <v>0.64000000000000012</v>
+        <f>2*0.2</f>
+        <v>0.4</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
       <c r="E14" s="78">
         <f>+C14*D14</f>
-        <v>10.880000000000003</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,7 +4531,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
-        <v>12.380000000000003</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4374,10 +4555,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="7">
         <v>0.5</v>
       </c>
@@ -4413,17 +4594,17 @@
       <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="99" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="80">
         <f>(E15+E18)*1.4</f>
-        <v>19.572000000000003</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4434,13 +4615,13 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="95"/>
@@ -4450,15 +4631,15 @@
       <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="147"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -4472,11 +4653,11 @@
         <v>69</v>
       </c>
       <c r="E26" s="60">
-        <v>14.17</v>
+        <v>5.18</v>
       </c>
       <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>47.37</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,7 +4666,7 @@
       </c>
       <c r="B27" s="5">
         <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>22.02</v>
+        <v>15.59</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -4503,13 +4684,13 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="95"/>
@@ -4532,7 +4713,7 @@
       </c>
       <c r="E31" s="82">
         <f>((E26/(1000*0.9)))</f>
-        <v>1.5744444444444443E-2</v>
+        <v>5.7555555555555554E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,7 +4729,7 @@
       </c>
       <c r="E32" s="83">
         <f>(B35/((E31/E7)^(1/2)))</f>
-        <v>0.92666908674578941</v>
+        <v>1.5326561091891258</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4581,7 +4762,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="84">
-        <v>24.765999999999998</v>
+        <v>24.300999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,7 +4789,7 @@
       </c>
       <c r="B37" s="61">
         <f>(E34*(E31/B35))</f>
-        <v>1.4997188888888886</v>
+        <v>0.53794521367521364</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4639,10 +4820,10 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="145"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="64">
         <v>3</v>
       </c>
@@ -4659,8 +4840,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="64">
         <v>0</v>
       </c>
@@ -4693,13 +4874,13 @@
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="142"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -4740,12 +4921,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>5.4933333333333323</v>
       </c>
-      <c r="C48" s="146" t="str">
+      <c r="C48" s="144" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -4755,19 +4936,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="147" t="s">
+      <c r="B50" s="143"/>
+      <c r="C50" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
-      <c r="B51" s="145"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="70">
         <v>1</v>
       </c>
@@ -4810,24 +4991,24 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4853,13 +5034,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,22 +5051,22 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -4935,10 +5116,10 @@
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -4948,13 +5129,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
@@ -4962,7 +5143,7 @@
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="148" t="s">
+      <c r="F11" s="153" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4978,13 +5159,13 @@
       <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="148"/>
+      <c r="F12" s="153"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -4996,13 +5177,13 @@
         <f>+C13*D13</f>
         <v>1.5</v>
       </c>
-      <c r="F13" s="148"/>
+      <c r="F13" s="153"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -5014,7 +5195,7 @@
         <f>+C14*D14</f>
         <v>10.880000000000003</v>
       </c>
-      <c r="F14" s="148"/>
+      <c r="F14" s="153"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
@@ -5027,7 +5208,7 @@
         <f>SUM(E13:E14)</f>
         <v>12.380000000000003</v>
       </c>
-      <c r="F15" s="148"/>
+      <c r="F15" s="153"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
@@ -5035,7 +5216,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="80"/>
-      <c r="F16" s="148"/>
+      <c r="F16" s="153"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
@@ -5049,13 +5230,13 @@
       <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="148"/>
+      <c r="F17" s="153"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="89">
         <v>0</v>
       </c>
@@ -5066,13 +5247,13 @@
         <f>+C18*D18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="148"/>
+      <c r="F18" s="153"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="89">
         <v>0.5</v>
       </c>
@@ -5083,7 +5264,7 @@
         <f>+C19*D19</f>
         <v>1.6</v>
       </c>
-      <c r="F19" s="148"/>
+      <c r="F19" s="153"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
@@ -5091,7 +5272,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="97"/>
       <c r="E20" s="78"/>
-      <c r="F20" s="148"/>
+      <c r="F20" s="153"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -5109,7 +5290,7 @@
         <f>+C21*D21</f>
         <v>1</v>
       </c>
-      <c r="F21" s="148"/>
+      <c r="F21" s="153"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -5117,16 +5298,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="148"/>
+      <c r="F22" s="153"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
@@ -5136,15 +5317,15 @@
       <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="147"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5189,13 +5370,13 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
@@ -5325,10 +5506,10 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="145"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="64">
         <v>3</v>
       </c>
@@ -5345,8 +5526,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="64">
         <v>0</v>
       </c>
@@ -5379,13 +5560,13 @@
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="142"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -5426,12 +5607,12 @@
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
         <v>5.4933333333333323</v>
       </c>
-      <c r="C48" s="146" t="str">
+      <c r="C48" s="144" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -5441,19 +5622,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="147" t="s">
+      <c r="B50" s="143"/>
+      <c r="C50" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
-      <c r="B51" s="145"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="70">
         <v>1</v>
       </c>
@@ -5496,6 +5677,13 @@
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="F11:F22"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A50:B51"/>
@@ -5508,13 +5696,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5523,11 +5704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B2BF4C-C0F8-4FE7-949B-271367FB6829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E8ADDC-0428-4A78-9A2B-5758A32A377A}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,13 +5721,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,41 +5738,41 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="142" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="103" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="89">
         <v>3.15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="103" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="89">
@@ -5599,14 +5780,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="103" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="90">
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="103" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="89">
@@ -5615,17 +5796,17 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="103" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="62">
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -5635,39 +5816,39 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -5681,20 +5862,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="59">
-        <f>4.2*0.2</f>
-        <v>0.84000000000000008</v>
+        <f>2*0.2</f>
+        <v>0.4</v>
       </c>
       <c r="D14" s="8">
         <v>17</v>
       </c>
       <c r="E14" s="78">
         <f>+C14*D14</f>
-        <v>14.280000000000001</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5706,7 +5887,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="80">
         <f>SUM(E13:E14)</f>
-        <v>15.780000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,21 +5900,21 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="102" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="7">
         <v>0.5</v>
       </c>
@@ -5746,10 +5927,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="7">
         <v>0.5</v>
       </c>
@@ -5762,24 +5943,24 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="7"/>
       <c r="D20" s="97"/>
       <c r="E20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="99" t="s">
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="102" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="80">
         <f>1.4*(E15+E18)</f>
-        <v>24.332000000000001</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,31 +5971,31 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="147"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5828,11 +6009,11 @@
         <v>69</v>
       </c>
       <c r="E26" s="60">
-        <v>30.18</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="G26" s="60">
         <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
-        <v>59.07</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5841,14 +6022,14 @@
       </c>
       <c r="B27" s="5">
         <f>ROUND(((E15+E18)*B6/2),2)</f>
-        <v>27.37</v>
+        <v>15.59</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="5">
-        <v>38.32</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,20 +6040,20 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
@@ -5888,7 +6069,7 @@
       </c>
       <c r="E31" s="82">
         <f>((E26/(1000*0.9)))</f>
-        <v>3.3533333333333332E-2</v>
+        <v>1.9100000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5896,7 +6077,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="4">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -5904,7 +6085,7 @@
       </c>
       <c r="E32" s="83">
         <f>(B35/((E31/E7)^(1/2)))</f>
-        <v>0.63496528606918545</v>
+        <v>0.84134024219774572</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5919,7 +6100,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="92">
-        <v>0.59799999999999998</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F33" s="93" t="s">
         <v>84</v>
@@ -5937,11 +6118,11 @@
         <v>31</v>
       </c>
       <c r="E34" s="84">
-        <v>25.625</v>
+        <v>24.765999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="103" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3">
@@ -5964,7 +6145,7 @@
       </c>
       <c r="B37" s="61">
         <f>(E34*(E31/B35))</f>
-        <v>3.3049679487179486</v>
+        <v>1.8193484615384616</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5979,12 +6160,12 @@
         <v>1.7330000000000001</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="94" t="s">
+      <c r="D38" s="102" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="85">
         <f>+IF(B38&gt;B37,B38,B37)</f>
-        <v>3.3049679487179486</v>
+        <v>1.8193484615384616</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5995,10 +6176,10 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="145"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="64"/>
       <c r="D40" s="87">
         <v>10</v>
@@ -6013,8 +6194,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="64">
         <v>2</v>
       </c>
@@ -6047,13 +6228,13 @@
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="142"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -6068,7 +6249,7 @@
       </c>
       <c r="B46" s="5">
         <f>+E27/0.75</f>
-        <v>51.093333333333334</v>
+        <v>29.106666666666666</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -6092,14 +6273,14 @@
       </c>
       <c r="B48" s="5">
         <f>+IF(B47&gt;B46,0,B46-B47)</f>
-        <v>7.7600000000000051</v>
-      </c>
-      <c r="C48" s="146" t="str">
+        <v>0</v>
+      </c>
+      <c r="C48" s="144" t="str">
         <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
-        <v>ES NECESARIA ARM. DE CORTE</v>
-      </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
+        <v>ARM. MINIMA DE CORTE</v>
+      </c>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -6109,19 +6290,19 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="147" t="s">
+      <c r="B50" s="143"/>
+      <c r="C50" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
-      <c r="B51" s="145"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="70">
         <v>1</v>
       </c>
@@ -6173,16 +6354,16 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6191,6 +6372,674 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B2BF4C-C0F8-4FE7-949B-271367FB6829}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="151"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="89">
+        <v>3.15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="90">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="89">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="62">
+        <v>420</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="152"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="146"/>
+      <c r="C13" s="59">
+        <f>+E6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="78">
+        <f>+C13*D13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="59">
+        <f>4.2*0.2</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="D14" s="8">
+        <v>17</v>
+      </c>
+      <c r="E14" s="78">
+        <f>+C14*D14</f>
+        <v>14.280000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="80">
+        <f>SUM(E13:E14)</f>
+        <v>15.780000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="146"/>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="97">
+        <v>3.2</v>
+      </c>
+      <c r="E18" s="78">
+        <f>+C18*D18</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="97">
+        <v>2</v>
+      </c>
+      <c r="E19" s="78">
+        <f>+C19*D19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="78"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="80">
+        <f>1.4*(E15+E18)</f>
+        <v>24.332000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="147"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="147"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="60">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="60">
+        <v>30.18</v>
+      </c>
+      <c r="G26" s="60">
+        <f>ROUND((((1.2*(E15+E19))+(1.6*E21))),2)</f>
+        <v>59.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5">
+        <f>ROUND(((E15+E18)*B6/2),2)</f>
+        <v>27.37</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>38.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <f>+E6</f>
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="82">
+        <f>((E26/(1000*0.9)))</f>
+        <v>3.3533333333333332E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="83">
+        <f>(B35/((E31/E7)^(1/2)))</f>
+        <v>0.63496528606918545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="92">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F33" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="84">
+        <v>25.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3">
+        <f>+ROUND(B31-B32-B33-B34/2,2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="61">
+        <f>(E34*(E31/B35))</f>
+        <v>3.3049679487179486</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="61">
+        <f>+ROUND(((1.4*$E$7*$B$35)/$B$8)*10000,3)</f>
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="85">
+        <f>+IF(B38&gt;B37,B38,B37)</f>
+        <v>3.3049679487179486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="143"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="87">
+        <v>10</v>
+      </c>
+      <c r="E40" s="88">
+        <f>C40*(PI()*(D40/10)^2)/4</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="64">
+        <v>2</v>
+      </c>
+      <c r="D41" s="87">
+        <v>16</v>
+      </c>
+      <c r="E41" s="88">
+        <f>C41*(PI()*(D41/10)^2)/4</f>
+        <v>4.0212385965949355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="65" t="str">
+        <f>+IF(E42&gt;E38,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="E42" s="85">
+        <f>SUM(E40:E41)</f>
+        <v>4.0212385965949355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="86"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="142"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
+        <f>+E27/0.75</f>
+        <v>51.093333333333334</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="5">
+        <f>((1/6)*(B7^(1/2))*(E7*1000)*(1000*(B35))/1000)</f>
+        <v>43.333333333333329</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5">
+        <f>+IF(B47&gt;B46,0,B46-B47)</f>
+        <v>7.7600000000000051</v>
+      </c>
+      <c r="C48" s="144" t="str">
+        <f>+IF(B47&gt;B46,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
+        <v>ES NECESARIA ARM. DE CORTE</v>
+      </c>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="143"/>
+      <c r="C50" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="70">
+        <v>1</v>
+      </c>
+      <c r="D51" s="71">
+        <v>6</v>
+      </c>
+      <c r="E51" s="72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="73">
+        <f>+((((2*(PI()*(D51/10)^2)/4)/(100^2))*B8*B35)/(E51/100))*1000</f>
+        <v>30.875572599480485</v>
+      </c>
+      <c r="C53" s="65" t="str">
+        <f>+IF(B53&gt;B48,"B.C.","M.C.")</f>
+        <v>B.C.</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1521795D-E2A5-496C-B487-460167F8BB74}">
   <dimension ref="A1:G59"/>
   <sheetViews>
@@ -6208,13 +7057,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,22 +7074,22 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -6290,10 +7139,10 @@
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -6303,13 +7152,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -6332,10 +7181,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>3.4000000000000002E-2</v>
@@ -6349,10 +7198,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="59" t="s">
         <v>38</v>
       </c>
@@ -6396,10 +7245,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="7">
         <v>0.5</v>
       </c>
@@ -6412,10 +7261,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="7">
         <v>0.5</v>
       </c>
@@ -6467,11 +7316,11 @@
       <c r="E22" s="78"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="99" t="s">
         <v>112</v>
       </c>
@@ -6488,13 +7337,13 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="95"/>
@@ -6504,15 +7353,15 @@
       <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="144"/>
+      <c r="E27" s="147"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -6557,13 +7406,13 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="95"/>
@@ -6693,10 +7542,10 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="145" t="s">
+      <c r="A42" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="145"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="64">
         <v>0</v>
       </c>
@@ -6713,8 +7562,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="145"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="64">
         <v>0</v>
       </c>
@@ -6747,13 +7596,13 @@
       <c r="E45" s="86"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="114"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="142"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -6794,12 +7643,12 @@
         <f>+IF(B49&gt;B48,0,B48-B49)</f>
         <v>0</v>
       </c>
-      <c r="C50" s="146" t="str">
+      <c r="C50" s="144" t="str">
         <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ARM. MINIMA DE CORTE</v>
       </c>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -6809,19 +7658,19 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="145" t="s">
+      <c r="A52" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="145"/>
-      <c r="C52" s="147" t="s">
+      <c r="B52" s="143"/>
+      <c r="C52" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="145"/>
-      <c r="B53" s="145"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="70">
         <v>1</v>
       </c>
@@ -6864,6 +7713,15 @@
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="A52:B53"/>
@@ -6874,15 +7732,6 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6890,11 +7739,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E062836-A092-4CEC-91EB-8768324FE023}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -6908,13 +7757,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,22 +7774,22 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -6990,10 +7839,10 @@
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -7003,13 +7852,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -7032,10 +7881,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -7049,10 +7898,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -7098,10 +7947,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="7">
         <f>3.15/2</f>
         <v>1.575</v>
@@ -7115,10 +7964,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="7">
         <f>(1.73+3.15)/2</f>
         <v>2.44</v>
@@ -7173,11 +8022,11 @@
       <c r="E22" s="78"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="99" t="s">
         <v>110</v>
       </c>
@@ -7187,37 +8036,37 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="149">
+      <c r="E24" s="104">
         <f>ROUND(1.2*(E15+E19)+1.6*E21,2)</f>
         <v>32.03</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="105">
         <f>(1.2*17.38+1.6*1)*3.15/2</f>
         <v>35.368200000000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="105">
         <v>8.2899999999999991</v>
       </c>
     </row>
@@ -7228,13 +8077,13 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="95"/>
@@ -7244,15 +8093,15 @@
       <c r="E29" s="95"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="144"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="144"/>
+      <c r="E30" s="147"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -7297,13 +8146,13 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="114"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="95"/>
@@ -7433,10 +8282,10 @@
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="145" t="s">
+      <c r="A45" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="145"/>
+      <c r="B45" s="143"/>
       <c r="C45" s="64">
         <v>2</v>
       </c>
@@ -7453,8 +8302,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="145"/>
+      <c r="A46" s="143"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="64">
         <v>0</v>
       </c>
@@ -7487,13 +8336,13 @@
       <c r="E48" s="86"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="142"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -7534,12 +8383,12 @@
         <f>+IF(B52&gt;B51,0,B51-B52)</f>
         <v>32.693333333333349</v>
       </c>
-      <c r="C53" s="146" t="str">
+      <c r="C53" s="144" t="str">
         <f>+IF(B52&gt;B51,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -7549,19 +8398,19 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="145" t="s">
+      <c r="A55" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="145"/>
-      <c r="C55" s="147" t="s">
+      <c r="B55" s="143"/>
+      <c r="C55" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="145"/>
-      <c r="B56" s="145"/>
+      <c r="A56" s="143"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="70">
         <v>1</v>
       </c>
@@ -7604,12 +8453,6 @@
     <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:E55"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A1:E1"/>
@@ -7623,6 +8466,12 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A23:C26"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7630,7 +8479,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795E6AB8-37B0-4DB5-B951-756720C93B36}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <f>2.5+0.6+B3/2</f>
+        <v>3.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8">
+        <f>(B8+B9)/B3</f>
+        <v>3.0833333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <f>IF(E8&lt;=2.5,E8,2.5)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11">
+        <f>((9*B1*B4*B5*B6*B7)/(10*SQRT(B2)*E9))*B3</f>
+        <v>29.0304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B11/B3</f>
+        <v>24.192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF34DB6-F503-4C26-876F-20F31B326D54}">
   <dimension ref="A1:G59"/>
   <sheetViews>
@@ -7648,13 +8614,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7665,22 +8631,22 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
@@ -7730,10 +8696,10 @@
         <v>420</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -7743,13 +8709,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95"/>
@@ -7772,10 +8738,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="138"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="59">
         <f>+E6*E7</f>
         <v>0.06</v>
@@ -7789,10 +8755,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="59">
         <f>3.2*0.2</f>
         <v>0.64000000000000012</v>
@@ -7838,10 +8804,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="89">
         <v>0</v>
       </c>
@@ -7854,10 +8820,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="138"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="89">
         <f>3.15/2</f>
         <v>1.575</v>
@@ -7871,10 +8837,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="138"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="89">
         <f>(1.73+3.15)/2</f>
         <v>2.44</v>
@@ -7936,13 +8902,13 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="95"/>
@@ -7952,15 +8918,15 @@
       <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="144"/>
+      <c r="E27" s="147"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -8005,13 +8971,13 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="95"/>
@@ -8141,10 +9107,10 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="145" t="s">
+      <c r="A42" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="145"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="64">
         <v>3</v>
       </c>
@@ -8161,8 +9127,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="145"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="64">
         <v>0</v>
       </c>
@@ -8195,13 +9161,13 @@
       <c r="E45" s="86"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="114"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="142"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -8242,12 +9208,12 @@
         <f>+IF(B49&gt;B48,0,B48-B49)</f>
         <v>32.693333333333349</v>
       </c>
-      <c r="C50" s="146" t="str">
+      <c r="C50" s="144" t="str">
         <f>+IF(B49&gt;B48,"ARM. MINIMA DE CORTE","ES NECESARIA ARM. DE CORTE")</f>
         <v>ES NECESARIA ARM. DE CORTE</v>
       </c>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -8257,19 +9223,19 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="145" t="s">
+      <c r="A52" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="145"/>
-      <c r="C52" s="147" t="s">
+      <c r="B52" s="143"/>
+      <c r="C52" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="145"/>
-      <c r="B53" s="145"/>
+      <c r="A53" s="143"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="70">
         <v>1</v>
       </c>
@@ -8312,12 +9278,12 @@
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -8325,12 +9291,12 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
